--- a/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9734428617116899</v>
+      </c>
+      <c r="D3">
         <v>1.014977157515625</v>
-      </c>
-      <c r="D3">
-        <v>0.9734428617116901</v>
       </c>
       <c r="E3">
         <v>1.0029013979578</v>
       </c>
       <c r="F3">
+        <v>0.9734428617116899</v>
+      </c>
+      <c r="G3">
+        <v>1.006386450018939</v>
+      </c>
+      <c r="H3">
         <v>1.014977157515625</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.986570278348513</v>
+      </c>
+      <c r="J3">
         <v>1.006106885142706</v>
-      </c>
-      <c r="H3">
-        <v>0.986570278348513</v>
-      </c>
-      <c r="I3">
-        <v>1.006386450018939</v>
-      </c>
-      <c r="J3">
-        <v>0.9734428617116901</v>
       </c>
       <c r="K3">
         <v>1.014977157515625</v>
@@ -704,19 +656,19 @@
         <v>1.0029013979578</v>
       </c>
       <c r="M3">
-        <v>0.9881721298347452</v>
+        <v>0.9881721298347451</v>
       </c>
       <c r="N3">
-        <v>0.9881721298347452</v>
+        <v>0.9881721298347451</v>
       </c>
       <c r="O3">
-        <v>0.9876381793393345</v>
+        <v>0.9876381793393344</v>
       </c>
       <c r="P3">
-        <v>0.9971071390617053</v>
+        <v>0.9971071390617051</v>
       </c>
       <c r="Q3">
-        <v>0.9971071390617053</v>
+        <v>0.9971071390617051</v>
       </c>
       <c r="R3">
         <v>1.001574643675185</v>
@@ -728,7 +680,7 @@
         <v>0.9983975051158791</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9485864204647523</v>
+      </c>
+      <c r="D4">
         <v>1.028335117570719</v>
-      </c>
-      <c r="D4">
-        <v>0.9485864204647523</v>
       </c>
       <c r="E4">
         <v>1.00580970841176</v>
       </c>
       <c r="F4">
+        <v>0.9485864204647523</v>
+      </c>
+      <c r="G4">
+        <v>1.012306877880765</v>
+      </c>
+      <c r="H4">
         <v>1.028335117570719</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.9741613408913321</v>
+      </c>
+      <c r="J4">
         <v>1.012222499601897</v>
-      </c>
-      <c r="H4">
-        <v>0.9741613408913321</v>
-      </c>
-      <c r="I4">
-        <v>1.012306877880765</v>
-      </c>
-      <c r="J4">
-        <v>0.9485864204647523</v>
       </c>
       <c r="K4">
         <v>1.028335117570719</v>
@@ -790,7 +742,7 @@
         <v>0.9969036608035377</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9023846930305747</v>
+      </c>
+      <c r="D5">
         <v>1.053943951611927</v>
-      </c>
-      <c r="D5">
-        <v>0.9023846930305747</v>
       </c>
       <c r="E5">
         <v>1.01115955733649</v>
       </c>
       <c r="F5">
+        <v>0.9023846930305747</v>
+      </c>
+      <c r="G5">
+        <v>1.023488807726177</v>
+      </c>
+      <c r="H5">
         <v>1.053943951611927</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.9504399494162845</v>
+      </c>
+      <c r="J5">
         <v>1.024255985218116</v>
-      </c>
-      <c r="H5">
-        <v>0.9504399494162845</v>
-      </c>
-      <c r="I5">
-        <v>1.023488807726177</v>
-      </c>
-      <c r="J5">
-        <v>0.9023846930305747</v>
       </c>
       <c r="K5">
         <v>1.053943951611927</v>
@@ -852,7 +804,7 @@
         <v>0.9942788240565948</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8581867241790017</v>
+      </c>
+      <c r="D6">
         <v>1.079022760141631</v>
-      </c>
-      <c r="D6">
-        <v>0.8581867241790017</v>
       </c>
       <c r="E6">
         <v>1.016948704976939</v>
       </c>
       <c r="F6">
+        <v>0.8581867241790017</v>
+      </c>
+      <c r="G6">
+        <v>1.034702805089668</v>
+      </c>
+      <c r="H6">
         <v>1.079022760141631</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.9267395920419356</v>
+      </c>
+      <c r="J6">
         <v>1.03525026542538</v>
-      </c>
-      <c r="H6">
-        <v>0.9267395920419356</v>
-      </c>
-      <c r="I6">
-        <v>1.034702805089668</v>
-      </c>
-      <c r="J6">
-        <v>0.8581867241790017</v>
       </c>
       <c r="K6">
         <v>1.079022760141631</v>
@@ -914,7 +866,7 @@
         <v>0.9918084753090927</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +874,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997137449332311</v>
+        <v>0.9989120331000813</v>
       </c>
       <c r="D7">
-        <v>0.9989120331000807</v>
+        <v>0.9997137449332314</v>
       </c>
       <c r="E7">
         <v>1.000570828227621</v>
       </c>
       <c r="F7">
-        <v>0.9997137449332311</v>
+        <v>0.9989120331000813</v>
       </c>
       <c r="G7">
+        <v>1.000317864279584</v>
+      </c>
+      <c r="H7">
+        <v>0.9997137449332314</v>
+      </c>
+      <c r="I7">
+        <v>0.9991767032483215</v>
+      </c>
+      <c r="J7">
         <v>1.001895840611028</v>
       </c>
-      <c r="H7">
-        <v>0.9991767032483218</v>
-      </c>
-      <c r="I7">
-        <v>1.000317864279584</v>
-      </c>
-      <c r="J7">
-        <v>0.9989120331000807</v>
-      </c>
       <c r="K7">
-        <v>0.9997137449332311</v>
+        <v>0.9997137449332314</v>
       </c>
       <c r="L7">
         <v>1.000570828227621</v>
       </c>
       <c r="M7">
-        <v>0.9997414306638509</v>
+        <v>0.999741430663851</v>
       </c>
       <c r="N7">
-        <v>0.9997414306638509</v>
+        <v>0.999741430663851</v>
       </c>
       <c r="O7">
         <v>0.9995531881920079</v>
       </c>
       <c r="P7">
-        <v>0.9997322020869777</v>
+        <v>0.9997322020869778</v>
       </c>
       <c r="Q7">
-        <v>0.9997322020869776</v>
+        <v>0.9997322020869778</v>
       </c>
       <c r="R7">
-        <v>0.9997275877985409</v>
+        <v>0.9997275877985412</v>
       </c>
       <c r="S7">
-        <v>0.9997275877985409</v>
+        <v>0.9997275877985412</v>
       </c>
       <c r="T7">
         <v>1.000097835733311</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9972718477378</v>
+      </c>
+      <c r="D8">
         <v>0.9992575784201656</v>
-      </c>
-      <c r="D8">
-        <v>0.9972718477377995</v>
       </c>
       <c r="E8">
         <v>1.001432109853603</v>
       </c>
       <c r="F8">
+        <v>0.9972718477378</v>
+      </c>
+      <c r="G8">
+        <v>1.00079193100475</v>
+      </c>
+      <c r="H8">
         <v>0.9992575784201656</v>
       </c>
-      <c r="G8">
-        <v>1.004642395640929</v>
-      </c>
-      <c r="H8">
-        <v>0.997976982785321</v>
-      </c>
       <c r="I8">
-        <v>1.00079193100475</v>
+        <v>0.9979769827853208</v>
       </c>
       <c r="J8">
-        <v>0.9972718477377995</v>
+        <v>1.00464239564093</v>
       </c>
       <c r="K8">
         <v>0.9992575784201656</v>
@@ -1014,31 +966,31 @@
         <v>1.001432109853603</v>
       </c>
       <c r="M8">
-        <v>0.9993519787957011</v>
+        <v>0.9993519787957017</v>
       </c>
       <c r="N8">
-        <v>0.9993519787957011</v>
+        <v>0.9993519787957017</v>
       </c>
       <c r="O8">
-        <v>0.998893646792241</v>
+        <v>0.9988936467922414</v>
       </c>
       <c r="P8">
-        <v>0.9993205120038559</v>
+        <v>0.9993205120038563</v>
       </c>
       <c r="Q8">
-        <v>0.9993205120038559</v>
+        <v>0.9993205120038563</v>
       </c>
       <c r="R8">
-        <v>0.9993047786079333</v>
+        <v>0.9993047786079337</v>
       </c>
       <c r="S8">
-        <v>0.9993047786079333</v>
+        <v>0.9993047786079337</v>
       </c>
       <c r="T8">
-        <v>1.000228807573761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000228807573762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9962306473132339</v>
+      </c>
+      <c r="D9">
         <v>0.9989619313227168</v>
-      </c>
-      <c r="D9">
-        <v>0.9962306473132339</v>
       </c>
       <c r="E9">
         <v>1.001997837100616</v>
       </c>
       <c r="F9">
+        <v>0.9962306473132339</v>
+      </c>
+      <c r="G9">
+        <v>1.001100775647939</v>
+      </c>
+      <c r="H9">
         <v>0.9989619313227168</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.9972716334696698</v>
+      </c>
+      <c r="J9">
         <v>1.006083322336773</v>
-      </c>
-      <c r="H9">
-        <v>0.9972716334696696</v>
-      </c>
-      <c r="I9">
-        <v>1.001100775647939</v>
-      </c>
-      <c r="J9">
-        <v>0.9962306473132339</v>
       </c>
       <c r="K9">
         <v>0.9989619313227168</v>
@@ -1100,7 +1052,7 @@
         <v>1.000274357865158</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,46 +1060,46 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9917730475837904</v>
+      </c>
+      <c r="D10">
         <v>0.9978238189405574</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.004297181178418</v>
+      </c>
+      <c r="F10">
         <v>0.9917730475837904</v>
       </c>
-      <c r="E10">
-        <v>1.004297181178417</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
+        <v>1.002385400072418</v>
+      </c>
+      <c r="H10">
         <v>0.9978238189405574</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.9940210552785382</v>
+      </c>
+      <c r="J10">
         <v>1.013422715097621</v>
-      </c>
-      <c r="H10">
-        <v>0.9940210552785382</v>
-      </c>
-      <c r="I10">
-        <v>1.002385400072418</v>
-      </c>
-      <c r="J10">
-        <v>0.9917730475837904</v>
       </c>
       <c r="K10">
         <v>0.9978238189405574</v>
       </c>
       <c r="L10">
-        <v>1.004297181178417</v>
+        <v>1.004297181178418</v>
       </c>
       <c r="M10">
-        <v>0.9980351143811039</v>
+        <v>0.9980351143811041</v>
       </c>
       <c r="N10">
-        <v>0.9980351143811039</v>
+        <v>0.9980351143811041</v>
       </c>
       <c r="O10">
-        <v>0.9966970946802487</v>
+        <v>0.9966970946802488</v>
       </c>
       <c r="P10">
-        <v>0.9979646825675884</v>
+        <v>0.9979646825675886</v>
       </c>
       <c r="Q10">
         <v>0.9979646825675884</v>
@@ -1162,7 +1114,7 @@
         <v>1.000620536358557</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9863662072562126</v>
+      </c>
+      <c r="D11">
         <v>0.9964841701949199</v>
-      </c>
-      <c r="D11">
-        <v>0.9863662072562126</v>
       </c>
       <c r="E11">
         <v>1.00703720932374</v>
       </c>
       <c r="F11">
+        <v>0.9863662072562126</v>
+      </c>
+      <c r="G11">
+        <v>1.00392028881124</v>
+      </c>
+      <c r="H11">
         <v>0.9964841701949199</v>
       </c>
-      <c r="G11">
-        <v>1.021267971612336</v>
-      </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9903553289382008</v>
       </c>
-      <c r="I11">
-        <v>1.00392028881124</v>
-      </c>
       <c r="J11">
-        <v>0.9863662072562126</v>
+        <v>1.021267971612335</v>
       </c>
       <c r="K11">
         <v>0.9964841701949199</v>
@@ -1224,7 +1176,7 @@
         <v>1.000905196022775</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.057020441297235</v>
+      </c>
+      <c r="D12">
         <v>1.163465786148756</v>
-      </c>
-      <c r="D12">
-        <v>1.057020441297235</v>
       </c>
       <c r="E12">
         <v>0.8901132375047996</v>
       </c>
       <c r="F12">
+        <v>1.057020441297235</v>
+      </c>
+      <c r="G12">
+        <v>0.9698820977595264</v>
+      </c>
+      <c r="H12">
         <v>1.163465786148756</v>
       </c>
-      <c r="G12">
-        <v>0.6813456698330567</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.083172435396266</v>
       </c>
-      <c r="I12">
-        <v>0.9698820977595264</v>
-      </c>
       <c r="J12">
-        <v>1.057020441297235</v>
+        <v>0.6813456698330564</v>
       </c>
       <c r="K12">
         <v>1.163465786148756</v>
@@ -1286,7 +1238,7 @@
         <v>0.9741666113232732</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8959120011689052</v>
+        <v>1.079184351565757</v>
       </c>
       <c r="D13">
-        <v>1.079184351565757</v>
+        <v>0.8959120011689051</v>
       </c>
       <c r="E13">
         <v>1.025296711242839</v>
       </c>
       <c r="F13">
-        <v>0.8959120011689052</v>
+        <v>1.079184351565757</v>
       </c>
       <c r="G13">
+        <v>0.9875322166970538</v>
+      </c>
+      <c r="H13">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="I13">
+        <v>1.025626328957357</v>
+      </c>
+      <c r="J13">
         <v>1.05327314256508</v>
       </c>
-      <c r="H13">
-        <v>1.025626328957357</v>
-      </c>
-      <c r="I13">
-        <v>0.9875322166970538</v>
-      </c>
-      <c r="J13">
-        <v>1.079184351565757</v>
-      </c>
       <c r="K13">
-        <v>0.8959120011689052</v>
+        <v>0.8959120011689051</v>
       </c>
       <c r="L13">
         <v>1.025296711242839</v>
@@ -1348,7 +1300,7 @@
         <v>1.011137458699499</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,40 +1308,40 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.38738221163911</v>
+      </c>
+      <c r="D14">
         <v>0.9451645460200326</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>0.8660412991064369</v>
+      </c>
+      <c r="F14">
         <v>1.38738221163911</v>
       </c>
-      <c r="E14">
-        <v>0.866041299106437</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
+        <v>0.8888523824839044</v>
+      </c>
+      <c r="H14">
         <v>0.9451645460200326</v>
       </c>
-      <c r="G14">
-        <v>0.5726370361259866</v>
-      </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.267629819945443</v>
       </c>
-      <c r="I14">
-        <v>0.8888523824839044</v>
-      </c>
       <c r="J14">
-        <v>1.38738221163911</v>
+        <v>0.5726370361259864</v>
       </c>
       <c r="K14">
         <v>0.9451645460200326</v>
       </c>
       <c r="L14">
-        <v>0.866041299106437</v>
+        <v>0.8660412991064369</v>
       </c>
       <c r="M14">
-        <v>1.126711755372774</v>
+        <v>1.126711755372773</v>
       </c>
       <c r="N14">
-        <v>1.126711755372774</v>
+        <v>1.126711755372773</v>
       </c>
       <c r="O14">
         <v>1.173684443563664</v>
@@ -1407,10 +1359,10 @@
         <v>1.035938150696403</v>
       </c>
       <c r="T14">
-        <v>0.9879512158868192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9879512158868189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9565139702977614</v>
+        <v>1.204344669416117</v>
       </c>
       <c r="D15">
-        <v>1.204344669416117</v>
+        <v>0.9565139702977612</v>
       </c>
       <c r="E15">
         <v>0.965076745243274</v>
       </c>
       <c r="F15">
-        <v>0.9565139702977614</v>
+        <v>1.204344669416117</v>
       </c>
       <c r="G15">
+        <v>0.962654655792831</v>
+      </c>
+      <c r="H15">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="I15">
+        <v>1.063251345171247</v>
+      </c>
+      <c r="J15">
         <v>0.963550663035824</v>
       </c>
-      <c r="H15">
-        <v>1.063251345171247</v>
-      </c>
-      <c r="I15">
-        <v>0.962654655792831</v>
-      </c>
-      <c r="J15">
-        <v>1.204344669416117</v>
-      </c>
       <c r="K15">
-        <v>0.9565139702977614</v>
+        <v>0.9565139702977612</v>
       </c>
       <c r="L15">
         <v>0.965076745243274</v>
@@ -1472,7 +1424,7 @@
         <v>1.019232008159509</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001490486272367</v>
+        <v>0.487517800602434</v>
       </c>
       <c r="D16">
-        <v>0.9999062626873529</v>
+        <v>1.271189901344025</v>
       </c>
       <c r="E16">
-        <v>0.9993484200269059</v>
+        <v>1.062739077281505</v>
       </c>
       <c r="F16">
-        <v>1.001490486272367</v>
+        <v>0.487517800602434</v>
       </c>
       <c r="G16">
-        <v>0.9992709351054423</v>
+        <v>1.123011223226758</v>
       </c>
       <c r="H16">
-        <v>0.9998933113658568</v>
+        <v>1.271189901344025</v>
       </c>
       <c r="I16">
-        <v>0.9999594330535264</v>
+        <v>0.7403178689839948</v>
       </c>
       <c r="J16">
-        <v>0.9999062626873529</v>
+        <v>1.14021199943568</v>
       </c>
       <c r="K16">
-        <v>1.001490486272367</v>
+        <v>1.271189901344025</v>
       </c>
       <c r="L16">
-        <v>0.9993484200269059</v>
+        <v>1.062739077281505</v>
       </c>
       <c r="M16">
-        <v>0.9996273413571295</v>
+        <v>0.7751284389419693</v>
       </c>
       <c r="N16">
-        <v>0.9996273413571295</v>
+        <v>0.7751284389419693</v>
       </c>
       <c r="O16">
-        <v>0.9997159980267053</v>
+        <v>0.7635249156226444</v>
       </c>
       <c r="P16">
-        <v>1.000248389662209</v>
+        <v>0.9404822597426543</v>
       </c>
       <c r="Q16">
-        <v>1.000248389662209</v>
+        <v>0.9404822597426543</v>
       </c>
       <c r="R16">
-        <v>1.000558913814748</v>
+        <v>1.023159170142997</v>
       </c>
       <c r="S16">
-        <v>1.000558913814748</v>
+        <v>1.023159170142997</v>
       </c>
       <c r="T16">
-        <v>0.9999781414185754</v>
+        <v>0.9708313118123995</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9971791423995018</v>
+        <v>0.6059237528279346</v>
       </c>
       <c r="D17">
-        <v>0.9991048917051155</v>
+        <v>1.176619600742172</v>
       </c>
       <c r="E17">
-        <v>1.001733566359245</v>
+        <v>1.064535102579297</v>
       </c>
       <c r="F17">
-        <v>0.9971791423995018</v>
+        <v>0.6059237528279346</v>
       </c>
       <c r="G17">
-        <v>1.004232451384958</v>
+        <v>1.09682827338109</v>
       </c>
       <c r="H17">
-        <v>0.999030569823539</v>
+        <v>1.176619600742172</v>
       </c>
       <c r="I17">
-        <v>1.000426202595526</v>
+        <v>0.7903241122139549</v>
       </c>
       <c r="J17">
-        <v>0.9991048917051155</v>
+        <v>1.165802536607133</v>
       </c>
       <c r="K17">
-        <v>0.9971791423995018</v>
+        <v>1.176619600742172</v>
       </c>
       <c r="L17">
-        <v>1.001733566359245</v>
+        <v>1.064535102579297</v>
       </c>
       <c r="M17">
-        <v>1.000419229032181</v>
+        <v>0.8352294277036157</v>
       </c>
       <c r="N17">
-        <v>1.000419229032181</v>
+        <v>0.8352294277036157</v>
       </c>
       <c r="O17">
-        <v>0.9999563426293</v>
+        <v>0.8202609892070621</v>
       </c>
       <c r="P17">
-        <v>0.9993392001546209</v>
+        <v>0.9490261520498012</v>
       </c>
       <c r="Q17">
-        <v>0.9993392001546209</v>
+        <v>0.9490261520498012</v>
       </c>
       <c r="R17">
-        <v>0.9987991857158411</v>
+        <v>1.005924514222894</v>
       </c>
       <c r="S17">
-        <v>0.9987991857158411</v>
+        <v>1.005924514222894</v>
       </c>
       <c r="T17">
-        <v>1.000284470711314</v>
+        <v>0.9833388963919302</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010237996183505</v>
+        <v>0.8429782581045303</v>
       </c>
       <c r="D18">
-        <v>0.9906304065742629</v>
+        <v>0.988359997489324</v>
       </c>
       <c r="E18">
-        <v>0.9986085158584057</v>
+        <v>1.067562084339636</v>
       </c>
       <c r="F18">
-        <v>1.010237996183505</v>
+        <v>0.8429782581045303</v>
       </c>
       <c r="G18">
-        <v>0.9979434368610937</v>
+        <v>1.044319578797712</v>
       </c>
       <c r="H18">
-        <v>0.9956602989773534</v>
+        <v>0.988359997489324</v>
       </c>
       <c r="I18">
-        <v>1.001890403751359</v>
+        <v>0.8909220961323</v>
       </c>
       <c r="J18">
-        <v>0.9906304065742629</v>
+        <v>1.214560167183971</v>
       </c>
       <c r="K18">
-        <v>1.010237996183505</v>
+        <v>0.988359997489324</v>
       </c>
       <c r="L18">
-        <v>0.9986085158584057</v>
+        <v>1.067562084339636</v>
       </c>
       <c r="M18">
-        <v>0.9946194612163344</v>
+        <v>0.955270171222083</v>
       </c>
       <c r="N18">
-        <v>0.9946194612163344</v>
+        <v>0.955270171222083</v>
       </c>
       <c r="O18">
-        <v>0.9949664071366741</v>
+        <v>0.933820812858822</v>
       </c>
       <c r="P18">
-        <v>0.9998256395387246</v>
+        <v>0.9663001133111634</v>
       </c>
       <c r="Q18">
-        <v>0.9998256395387245</v>
+        <v>0.9663001133111634</v>
       </c>
       <c r="R18">
-        <v>1.00242872869992</v>
+        <v>0.9718150843557035</v>
       </c>
       <c r="S18">
-        <v>1.00242872869992</v>
+        <v>0.9718150843557035</v>
       </c>
       <c r="T18">
-        <v>0.9991618430343298</v>
+        <v>1.008117030341246</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8483196833983438</v>
+      </c>
+      <c r="D19">
+        <v>0.9691977815741735</v>
+      </c>
+      <c r="E19">
+        <v>1.077850402563914</v>
+      </c>
+      <c r="F19">
+        <v>0.8483196833983438</v>
+      </c>
+      <c r="G19">
+        <v>1.045958557969934</v>
+      </c>
+      <c r="H19">
+        <v>0.9691977815741735</v>
+      </c>
+      <c r="I19">
+        <v>0.8808068773294035</v>
+      </c>
+      <c r="J19">
+        <v>1.262273245341685</v>
+      </c>
+      <c r="K19">
+        <v>0.9691977815741735</v>
+      </c>
+      <c r="L19">
+        <v>1.077850402563914</v>
+      </c>
+      <c r="M19">
+        <v>0.9630850429811288</v>
+      </c>
+      <c r="N19">
+        <v>0.9630850429811288</v>
+      </c>
+      <c r="O19">
+        <v>0.9356589877638871</v>
+      </c>
+      <c r="P19">
+        <v>0.9651226225121438</v>
+      </c>
+      <c r="Q19">
+        <v>0.9651226225121438</v>
+      </c>
+      <c r="R19">
+        <v>0.9661414122776513</v>
+      </c>
+      <c r="S19">
+        <v>0.9661414122776513</v>
+      </c>
+      <c r="T19">
+        <v>1.014067758029576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999062626873528</v>
+      </c>
+      <c r="D20">
+        <v>1.001490486272367</v>
+      </c>
+      <c r="E20">
+        <v>0.999348420026906</v>
+      </c>
+      <c r="F20">
+        <v>0.9999062626873528</v>
+      </c>
+      <c r="G20">
+        <v>0.9999594330535264</v>
+      </c>
+      <c r="H20">
+        <v>1.001490486272367</v>
+      </c>
+      <c r="I20">
+        <v>0.9998933113658568</v>
+      </c>
+      <c r="J20">
+        <v>0.9992709351054423</v>
+      </c>
+      <c r="K20">
+        <v>1.001490486272367</v>
+      </c>
+      <c r="L20">
+        <v>0.999348420026906</v>
+      </c>
+      <c r="M20">
+        <v>0.9996273413571295</v>
+      </c>
+      <c r="N20">
+        <v>0.9996273413571295</v>
+      </c>
+      <c r="O20">
+        <v>0.9997159980267053</v>
+      </c>
+      <c r="P20">
+        <v>1.000248389662209</v>
+      </c>
+      <c r="Q20">
+        <v>1.000248389662209</v>
+      </c>
+      <c r="R20">
+        <v>1.000558913814748</v>
+      </c>
+      <c r="S20">
+        <v>1.000558913814748</v>
+      </c>
+      <c r="T20">
+        <v>0.9999781414185754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9991048917051145</v>
+      </c>
+      <c r="D21">
+        <v>0.9971791423995018</v>
+      </c>
+      <c r="E21">
+        <v>1.001733566359245</v>
+      </c>
+      <c r="F21">
+        <v>0.9991048917051145</v>
+      </c>
+      <c r="G21">
+        <v>1.000426202595526</v>
+      </c>
+      <c r="H21">
+        <v>0.9971791423995018</v>
+      </c>
+      <c r="I21">
+        <v>0.999030569823539</v>
+      </c>
+      <c r="J21">
+        <v>1.004232451384958</v>
+      </c>
+      <c r="K21">
+        <v>0.9971791423995018</v>
+      </c>
+      <c r="L21">
+        <v>1.001733566359245</v>
+      </c>
+      <c r="M21">
+        <v>1.00041922903218</v>
+      </c>
+      <c r="N21">
+        <v>1.00041922903218</v>
+      </c>
+      <c r="O21">
+        <v>0.9999563426292997</v>
+      </c>
+      <c r="P21">
+        <v>0.9993392001546205</v>
+      </c>
+      <c r="Q21">
+        <v>0.9993392001546205</v>
+      </c>
+      <c r="R21">
+        <v>0.9987991857158409</v>
+      </c>
+      <c r="S21">
+        <v>0.9987991857158409</v>
+      </c>
+      <c r="T21">
+        <v>1.000284470711314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9906304065742622</v>
+      </c>
+      <c r="D22">
+        <v>1.010237996183505</v>
+      </c>
+      <c r="E22">
+        <v>0.9986085158584057</v>
+      </c>
+      <c r="F22">
+        <v>0.9906304065742622</v>
+      </c>
+      <c r="G22">
+        <v>1.001890403751359</v>
+      </c>
+      <c r="H22">
+        <v>1.010237996183505</v>
+      </c>
+      <c r="I22">
+        <v>0.9956602989773532</v>
+      </c>
+      <c r="J22">
+        <v>0.997943436861094</v>
+      </c>
+      <c r="K22">
+        <v>1.010237996183505</v>
+      </c>
+      <c r="L22">
+        <v>0.9986085158584057</v>
+      </c>
+      <c r="M22">
+        <v>0.9946194612163339</v>
+      </c>
+      <c r="N22">
+        <v>0.9946194612163339</v>
+      </c>
+      <c r="O22">
+        <v>0.9949664071366736</v>
+      </c>
+      <c r="P22">
+        <v>0.9998256395387243</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998256395387243</v>
+      </c>
+      <c r="R22">
+        <v>1.002428728699919</v>
+      </c>
+      <c r="S22">
+        <v>1.002428728699919</v>
+      </c>
+      <c r="T22">
+        <v>0.9991618430343298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.975033178802916</v>
+      </c>
+      <c r="D23">
         <v>1.037583542761666</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>0.9913764938602087</v>
+      </c>
+      <c r="F23">
         <v>0.975033178802916</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.004687387076846</v>
+      </c>
+      <c r="H23">
+        <v>1.037583542761666</v>
+      </c>
+      <c r="I23">
+        <v>0.9891707789588841</v>
+      </c>
+      <c r="J23">
+        <v>0.9840007695811178</v>
+      </c>
+      <c r="K23">
+        <v>1.037583542761666</v>
+      </c>
+      <c r="L23">
         <v>0.9913764938602087</v>
       </c>
-      <c r="F19">
-        <v>1.037583542761666</v>
-      </c>
-      <c r="G19">
-        <v>0.9840007695811178</v>
-      </c>
-      <c r="H19">
-        <v>0.9891707789588841</v>
-      </c>
-      <c r="I19">
-        <v>1.004687387076846</v>
-      </c>
-      <c r="J19">
-        <v>0.975033178802916</v>
-      </c>
-      <c r="K19">
-        <v>1.037583542761666</v>
-      </c>
-      <c r="L19">
-        <v>0.9913764938602087</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9832048363315623</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9832048363315623</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9851934838740029</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001331071808264</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001331071808263</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.010394189546614</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.010394189546614</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9969753585069396</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9734428617116899</v>
+        <v>0.8150388530072072</v>
       </c>
       <c r="D3">
-        <v>1.014977157515625</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="E3">
-        <v>1.0029013979578</v>
+        <v>1.07902729448847</v>
       </c>
       <c r="F3">
-        <v>0.9734428617116899</v>
+        <v>0.8150388530072072</v>
       </c>
       <c r="G3">
-        <v>1.006386450018939</v>
+        <v>1.052310032658501</v>
       </c>
       <c r="H3">
-        <v>1.014977157515625</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="I3">
-        <v>0.986570278348513</v>
+        <v>0.8702057462536014</v>
       </c>
       <c r="J3">
-        <v>1.006106885142706</v>
+        <v>1.255457197312681</v>
       </c>
       <c r="K3">
-        <v>1.014977157515625</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="L3">
-        <v>1.0029013979578</v>
+        <v>1.07902729448847</v>
       </c>
       <c r="M3">
-        <v>0.9881721298347451</v>
+        <v>0.9470330737478385</v>
       </c>
       <c r="N3">
-        <v>0.9881721298347451</v>
+        <v>0.9470330737478385</v>
       </c>
       <c r="O3">
-        <v>0.9876381793393344</v>
+        <v>0.9214239645830928</v>
       </c>
       <c r="P3">
-        <v>0.9971071390617051</v>
+        <v>0.9607595200345815</v>
       </c>
       <c r="Q3">
-        <v>0.9971071390617051</v>
+        <v>0.9607595200345814</v>
       </c>
       <c r="R3">
-        <v>1.001574643675185</v>
+        <v>0.9676227431779529</v>
       </c>
       <c r="S3">
-        <v>1.001574643675185</v>
+        <v>0.9676227431779529</v>
       </c>
       <c r="T3">
-        <v>0.9983975051158791</v>
+        <v>1.010041922721421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9485864204647523</v>
+        <v>0.8305219267377854</v>
       </c>
       <c r="D4">
-        <v>1.028335117570719</v>
+        <v>0.9877591146142409</v>
       </c>
       <c r="E4">
-        <v>1.00580970841176</v>
+        <v>1.072999146188965</v>
       </c>
       <c r="F4">
-        <v>0.9485864204647523</v>
+        <v>0.8305219267377854</v>
       </c>
       <c r="G4">
-        <v>1.012306877880765</v>
+        <v>1.047957004537831</v>
       </c>
       <c r="H4">
-        <v>1.028335117570719</v>
+        <v>0.9877591146142409</v>
       </c>
       <c r="I4">
-        <v>0.9741613408913321</v>
+        <v>0.881273499666414</v>
       </c>
       <c r="J4">
-        <v>1.012222499601897</v>
+        <v>1.234534500030749</v>
       </c>
       <c r="K4">
-        <v>1.028335117570719</v>
+        <v>0.9877591146142409</v>
       </c>
       <c r="L4">
-        <v>1.00580970841176</v>
+        <v>1.072999146188965</v>
       </c>
       <c r="M4">
-        <v>0.9771980644382561</v>
+        <v>0.9517605364633752</v>
       </c>
       <c r="N4">
-        <v>0.9771980644382561</v>
+        <v>0.9517605364633752</v>
       </c>
       <c r="O4">
-        <v>0.976185823255948</v>
+        <v>0.9282648575310549</v>
       </c>
       <c r="P4">
-        <v>0.994243748815744</v>
+        <v>0.9637600625136638</v>
       </c>
       <c r="Q4">
-        <v>0.994243748815744</v>
+        <v>0.9637600625136639</v>
       </c>
       <c r="R4">
-        <v>1.002766591004488</v>
+        <v>0.9697598255388081</v>
       </c>
       <c r="S4">
-        <v>1.002766591004488</v>
+        <v>0.9697598255388081</v>
       </c>
       <c r="T4">
-        <v>0.9969036608035377</v>
+        <v>1.009174198629331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9023846930305747</v>
+        <v>0.7859384540269538</v>
       </c>
       <c r="D5">
-        <v>1.053943951611927</v>
+        <v>0.9885300138005393</v>
       </c>
       <c r="E5">
-        <v>1.01115955733649</v>
+        <v>1.090604447520215</v>
       </c>
       <c r="F5">
-        <v>0.9023846930305747</v>
+        <v>0.7859384540269538</v>
       </c>
       <c r="G5">
-        <v>1.023488807726177</v>
+        <v>1.060508976846359</v>
       </c>
       <c r="H5">
-        <v>1.053943951611927</v>
+        <v>0.9885300138005393</v>
       </c>
       <c r="I5">
-        <v>0.9504399494162845</v>
+        <v>0.8493349023719671</v>
       </c>
       <c r="J5">
-        <v>1.024255985218116</v>
+        <v>1.295476798113206</v>
       </c>
       <c r="K5">
-        <v>1.053943951611927</v>
+        <v>0.9885300138005393</v>
       </c>
       <c r="L5">
-        <v>1.01115955733649</v>
+        <v>1.090604447520215</v>
       </c>
       <c r="M5">
-        <v>0.9567721251835322</v>
+        <v>0.9382714507735846</v>
       </c>
       <c r="N5">
-        <v>0.9567721251835322</v>
+        <v>0.9382714507735846</v>
       </c>
       <c r="O5">
-        <v>0.954661399927783</v>
+        <v>0.9086259346397121</v>
       </c>
       <c r="P5">
-        <v>0.989162733992997</v>
+        <v>0.9550243051159027</v>
       </c>
       <c r="Q5">
-        <v>0.9891627339929969</v>
+        <v>0.9550243051159027</v>
       </c>
       <c r="R5">
-        <v>1.005358038397729</v>
+        <v>0.9634007322870619</v>
       </c>
       <c r="S5">
-        <v>1.005358038397729</v>
+        <v>0.9634007322870619</v>
       </c>
       <c r="T5">
-        <v>0.9942788240565948</v>
+        <v>1.01173226544654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8581867241790017</v>
+        <v>0.7591285870454552</v>
       </c>
       <c r="D6">
-        <v>1.079022760141631</v>
+        <v>0.9881805036931821</v>
       </c>
       <c r="E6">
-        <v>1.016948704976939</v>
+        <v>1.101567457443182</v>
       </c>
       <c r="F6">
-        <v>0.8581867241790017</v>
+        <v>0.7591285870454552</v>
       </c>
       <c r="G6">
-        <v>1.034702805089668</v>
+        <v>1.068083519090909</v>
       </c>
       <c r="H6">
-        <v>1.079022760141631</v>
+        <v>0.9881805036931821</v>
       </c>
       <c r="I6">
-        <v>0.9267395920419356</v>
+        <v>0.8300238823863638</v>
       </c>
       <c r="J6">
-        <v>1.03525026542538</v>
+        <v>1.33318204284091</v>
       </c>
       <c r="K6">
-        <v>1.079022760141631</v>
+        <v>0.9881805036931821</v>
       </c>
       <c r="L6">
-        <v>1.016948704976939</v>
+        <v>1.101567457443182</v>
       </c>
       <c r="M6">
-        <v>0.9375677145779704</v>
+        <v>0.9303480222443185</v>
       </c>
       <c r="N6">
-        <v>0.9375677145779704</v>
+        <v>0.9303480222443185</v>
       </c>
       <c r="O6">
-        <v>0.933958340399292</v>
+        <v>0.8969066422916669</v>
       </c>
       <c r="P6">
-        <v>0.9847193964325239</v>
+        <v>0.9496255160606063</v>
       </c>
       <c r="Q6">
-        <v>0.9847193964325239</v>
+        <v>0.9496255160606063</v>
       </c>
       <c r="R6">
-        <v>1.008295237359801</v>
+        <v>0.9592642629687502</v>
       </c>
       <c r="S6">
-        <v>1.008295237359801</v>
+        <v>0.9592642629687502</v>
       </c>
       <c r="T6">
-        <v>0.9918084753090927</v>
+        <v>1.01336099875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989120331000813</v>
+        <v>1.036754006720604</v>
       </c>
       <c r="D7">
-        <v>0.9997137449332314</v>
+        <v>0.8722659800566371</v>
       </c>
       <c r="E7">
-        <v>1.000570828227621</v>
+        <v>1.077379497040382</v>
       </c>
       <c r="F7">
-        <v>0.9989120331000813</v>
+        <v>1.036754006720604</v>
       </c>
       <c r="G7">
-        <v>1.000317864279584</v>
+        <v>1.016168452089745</v>
       </c>
       <c r="H7">
-        <v>0.9997137449332314</v>
+        <v>0.8722659800566371</v>
       </c>
       <c r="I7">
-        <v>0.9991767032483215</v>
+        <v>0.9206678846482798</v>
       </c>
       <c r="J7">
-        <v>1.001895840611028</v>
+        <v>1.32620668111544</v>
       </c>
       <c r="K7">
-        <v>0.9997137449332314</v>
+        <v>0.8722659800566371</v>
       </c>
       <c r="L7">
-        <v>1.000570828227621</v>
+        <v>1.077379497040382</v>
       </c>
       <c r="M7">
-        <v>0.999741430663851</v>
+        <v>1.057066751880493</v>
       </c>
       <c r="N7">
-        <v>0.999741430663851</v>
+        <v>1.057066751880493</v>
       </c>
       <c r="O7">
-        <v>0.9995531881920079</v>
+        <v>1.011600462803089</v>
       </c>
       <c r="P7">
-        <v>0.9997322020869778</v>
+        <v>0.9954664946058743</v>
       </c>
       <c r="Q7">
-        <v>0.9997322020869778</v>
+        <v>0.9954664946058743</v>
       </c>
       <c r="R7">
-        <v>0.9997275877985412</v>
+        <v>0.964666365968565</v>
       </c>
       <c r="S7">
-        <v>0.9997275877985412</v>
+        <v>0.964666365968565</v>
       </c>
       <c r="T7">
-        <v>1.000097835733311</v>
+        <v>1.041573750278515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9972718477378</v>
+        <v>1.033259909409692</v>
       </c>
       <c r="D8">
-        <v>0.9992575784201656</v>
+        <v>0.8713408622068957</v>
       </c>
       <c r="E8">
-        <v>1.001432109853603</v>
+        <v>1.079039696827722</v>
       </c>
       <c r="F8">
-        <v>0.9972718477378</v>
+        <v>1.033259909409692</v>
       </c>
       <c r="G8">
-        <v>1.00079193100475</v>
+        <v>1.017066624717979</v>
       </c>
       <c r="H8">
-        <v>0.9992575784201656</v>
+        <v>0.8713408622068957</v>
       </c>
       <c r="I8">
-        <v>0.9979769827853208</v>
+        <v>0.9185581925011027</v>
       </c>
       <c r="J8">
-        <v>1.00464239564093</v>
+        <v>1.330938882744303</v>
       </c>
       <c r="K8">
-        <v>0.9992575784201656</v>
+        <v>0.8713408622068957</v>
       </c>
       <c r="L8">
-        <v>1.001432109853603</v>
+        <v>1.079039696827722</v>
       </c>
       <c r="M8">
-        <v>0.9993519787957017</v>
+        <v>1.056149803118707</v>
       </c>
       <c r="N8">
-        <v>0.9993519787957017</v>
+        <v>1.056149803118707</v>
       </c>
       <c r="O8">
-        <v>0.9988936467922414</v>
+        <v>1.010285932912839</v>
       </c>
       <c r="P8">
-        <v>0.9993205120038563</v>
+        <v>0.9945468228147699</v>
       </c>
       <c r="Q8">
-        <v>0.9993205120038563</v>
+        <v>0.9945468228147698</v>
       </c>
       <c r="R8">
-        <v>0.9993047786079337</v>
+        <v>0.9637453326628013</v>
       </c>
       <c r="S8">
-        <v>0.9993047786079337</v>
+        <v>0.9637453326628013</v>
       </c>
       <c r="T8">
-        <v>1.000228807573762</v>
+        <v>1.041700694734616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9962306473132339</v>
+        <v>1.030608923542474</v>
       </c>
       <c r="D9">
-        <v>0.9989619313227168</v>
+        <v>0.870133503360249</v>
       </c>
       <c r="E9">
-        <v>1.001997837100616</v>
+        <v>1.080611520628204</v>
       </c>
       <c r="F9">
-        <v>0.9962306473132339</v>
+        <v>1.030608923542474</v>
       </c>
       <c r="G9">
-        <v>1.001100775647939</v>
+        <v>1.017820622926144</v>
       </c>
       <c r="H9">
-        <v>0.9989619313227168</v>
+        <v>0.870133503360249</v>
       </c>
       <c r="I9">
-        <v>0.9972716334696698</v>
+        <v>0.9165171266622251</v>
       </c>
       <c r="J9">
-        <v>1.006083322336773</v>
+        <v>1.336374883566222</v>
       </c>
       <c r="K9">
-        <v>0.9989619313227168</v>
+        <v>0.870133503360249</v>
       </c>
       <c r="L9">
-        <v>1.001997837100616</v>
+        <v>1.080611520628204</v>
       </c>
       <c r="M9">
-        <v>0.9991142422069249</v>
+        <v>1.055610222085339</v>
       </c>
       <c r="N9">
-        <v>0.9991142422069249</v>
+        <v>1.055610222085339</v>
       </c>
       <c r="O9">
-        <v>0.9985000392945066</v>
+        <v>1.009245856944301</v>
       </c>
       <c r="P9">
-        <v>0.9990634719121889</v>
+        <v>0.9937846491769758</v>
       </c>
       <c r="Q9">
-        <v>0.9990634719121889</v>
+        <v>0.9937846491769756</v>
       </c>
       <c r="R9">
-        <v>0.9990380867648209</v>
+        <v>0.962871862722794</v>
       </c>
       <c r="S9">
-        <v>0.9990380867648209</v>
+        <v>0.962871862722794</v>
       </c>
       <c r="T9">
-        <v>1.000274357865158</v>
+        <v>1.04201109678092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9917730475837904</v>
+        <v>1.025083934777957</v>
       </c>
       <c r="D10">
-        <v>0.9978238189405574</v>
+        <v>0.8671135097954809</v>
       </c>
       <c r="E10">
-        <v>1.004297181178418</v>
+        <v>1.083683574803959</v>
       </c>
       <c r="F10">
-        <v>0.9917730475837904</v>
+        <v>1.025083934777957</v>
       </c>
       <c r="G10">
-        <v>1.002385400072418</v>
+        <v>1.019081007526749</v>
       </c>
       <c r="H10">
-        <v>0.9978238189405574</v>
+        <v>0.8671135097954809</v>
       </c>
       <c r="I10">
-        <v>0.9940210552785382</v>
+        <v>0.9141492976610949</v>
       </c>
       <c r="J10">
-        <v>1.013422715097621</v>
+        <v>1.342416403344859</v>
       </c>
       <c r="K10">
-        <v>0.9978238189405574</v>
+        <v>0.8671135097954809</v>
       </c>
       <c r="L10">
-        <v>1.004297181178418</v>
+        <v>1.083683574803959</v>
       </c>
       <c r="M10">
-        <v>0.9980351143811041</v>
+        <v>1.054383754790958</v>
       </c>
       <c r="N10">
-        <v>0.9980351143811041</v>
+        <v>1.054383754790958</v>
       </c>
       <c r="O10">
-        <v>0.9966970946802488</v>
+        <v>1.00763893574767</v>
       </c>
       <c r="P10">
-        <v>0.9979646825675886</v>
+        <v>0.9919603397924658</v>
       </c>
       <c r="Q10">
-        <v>0.9979646825675884</v>
+        <v>0.9919603397924659</v>
       </c>
       <c r="R10">
-        <v>0.9979294666608307</v>
+        <v>0.9607486322932196</v>
       </c>
       <c r="S10">
-        <v>0.9979294666608307</v>
+        <v>0.9607486322932196</v>
       </c>
       <c r="T10">
-        <v>1.000620536358557</v>
+        <v>1.041921287985017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9863662072562126</v>
+        <v>0.9709388782726743</v>
       </c>
       <c r="D11">
-        <v>0.9964841701949199</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="E11">
-        <v>1.00703720932374</v>
+        <v>1.003425641508906</v>
       </c>
       <c r="F11">
-        <v>0.9863662072562126</v>
+        <v>0.9709388782726743</v>
       </c>
       <c r="G11">
-        <v>1.00392028881124</v>
+        <v>1.006968883798775</v>
       </c>
       <c r="H11">
-        <v>0.9964841701949199</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="I11">
-        <v>0.9903553289382008</v>
+        <v>0.9853757661191058</v>
       </c>
       <c r="J11">
-        <v>1.021267971612335</v>
+        <v>1.007243763967109</v>
       </c>
       <c r="K11">
-        <v>0.9964841701949199</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="L11">
-        <v>1.00703720932374</v>
+        <v>1.003425641508906</v>
       </c>
       <c r="M11">
-        <v>0.9967017082899763</v>
+        <v>0.98718225989079</v>
       </c>
       <c r="N11">
-        <v>0.9967017082899763</v>
+        <v>0.98718225989079</v>
       </c>
       <c r="O11">
-        <v>0.9945862485060512</v>
+        <v>0.9865800953002286</v>
       </c>
       <c r="P11">
-        <v>0.9966291955916242</v>
+        <v>0.9966843326196657</v>
       </c>
       <c r="Q11">
-        <v>0.9966291955916242</v>
+        <v>0.9966843326196658</v>
       </c>
       <c r="R11">
-        <v>0.9965929392424482</v>
+        <v>1.001435368984104</v>
       </c>
       <c r="S11">
-        <v>0.9965929392424482</v>
+        <v>1.001435368984104</v>
       </c>
       <c r="T11">
-        <v>1.000905196022775</v>
+        <v>0.9982735686239979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.057020441297235</v>
+        <v>0.9872954328685613</v>
       </c>
       <c r="D12">
-        <v>1.163465786148756</v>
+        <v>1.00661310808729</v>
       </c>
       <c r="E12">
-        <v>0.8901132375047996</v>
+        <v>1.001758184268394</v>
       </c>
       <c r="F12">
-        <v>1.057020441297235</v>
+        <v>0.9872954328685613</v>
       </c>
       <c r="G12">
-        <v>0.9698820977595264</v>
+        <v>1.003153063412145</v>
       </c>
       <c r="H12">
-        <v>1.163465786148756</v>
+        <v>1.00661310808729</v>
       </c>
       <c r="I12">
-        <v>1.083172435396266</v>
+        <v>0.9931421076441839</v>
       </c>
       <c r="J12">
-        <v>0.6813456698330564</v>
+        <v>1.004585021192937</v>
       </c>
       <c r="K12">
-        <v>1.163465786148756</v>
+        <v>1.00661310808729</v>
       </c>
       <c r="L12">
-        <v>0.8901132375047996</v>
+        <v>1.001758184268394</v>
       </c>
       <c r="M12">
-        <v>0.9735668394010175</v>
+        <v>0.9945268085684779</v>
       </c>
       <c r="N12">
-        <v>0.9735668394010175</v>
+        <v>0.9945268085684779</v>
       </c>
       <c r="O12">
-        <v>1.0101020380661</v>
+        <v>0.9940652415937131</v>
       </c>
       <c r="P12">
-        <v>1.036866488316931</v>
+        <v>0.9985555750747487</v>
       </c>
       <c r="Q12">
-        <v>1.03686648831693</v>
+        <v>0.9985555750747487</v>
       </c>
       <c r="R12">
-        <v>1.068516312774887</v>
+        <v>1.000569958327884</v>
       </c>
       <c r="S12">
-        <v>1.068516312774887</v>
+        <v>1.000569958327884</v>
       </c>
       <c r="T12">
-        <v>0.9741666113232732</v>
+        <v>0.9994244862455854</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.079184351565757</v>
+        <v>0.95854764411681</v>
       </c>
       <c r="D13">
-        <v>0.8959120011689051</v>
+        <v>1.022856592668491</v>
       </c>
       <c r="E13">
-        <v>1.025296711242839</v>
+        <v>1.00519823350941</v>
       </c>
       <c r="F13">
-        <v>1.079184351565757</v>
+        <v>0.95854764411681</v>
       </c>
       <c r="G13">
-        <v>0.9875322166970538</v>
+        <v>1.010280541043581</v>
       </c>
       <c r="H13">
-        <v>0.8959120011689051</v>
+        <v>1.022856592668491</v>
       </c>
       <c r="I13">
-        <v>1.025626328957357</v>
+        <v>0.9777448999825803</v>
       </c>
       <c r="J13">
-        <v>1.05327314256508</v>
+        <v>1.013218534478123</v>
       </c>
       <c r="K13">
-        <v>0.8959120011689051</v>
+        <v>1.022856592668491</v>
       </c>
       <c r="L13">
-        <v>1.025296711242839</v>
+        <v>1.00519823350941</v>
       </c>
       <c r="M13">
-        <v>1.052240531404298</v>
+        <v>0.98187293881311</v>
       </c>
       <c r="N13">
-        <v>1.052240531404298</v>
+        <v>0.98187293881311</v>
       </c>
       <c r="O13">
-        <v>1.043369130588651</v>
+        <v>0.9804969258696001</v>
       </c>
       <c r="P13">
-        <v>1.000131021325834</v>
+        <v>0.9955341567649038</v>
       </c>
       <c r="Q13">
-        <v>1.000131021325834</v>
+        <v>0.9955341567649038</v>
       </c>
       <c r="R13">
-        <v>0.9740762662866016</v>
+        <v>1.002364765740801</v>
       </c>
       <c r="S13">
-        <v>0.9740762662866016</v>
+        <v>1.002364765740801</v>
       </c>
       <c r="T13">
-        <v>1.011137458699499</v>
+        <v>0.997974407633166</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.38738221163911</v>
+        <v>0.9265132031261424</v>
       </c>
       <c r="D14">
-        <v>0.9451645460200326</v>
+        <v>1.040190149264109</v>
       </c>
       <c r="E14">
-        <v>0.8660412991064369</v>
+        <v>1.008465503273307</v>
       </c>
       <c r="F14">
-        <v>1.38738221163911</v>
+        <v>0.9265132031261424</v>
       </c>
       <c r="G14">
-        <v>0.8888523824839044</v>
+        <v>1.017623908649209</v>
       </c>
       <c r="H14">
-        <v>0.9451645460200326</v>
+        <v>1.040190149264109</v>
       </c>
       <c r="I14">
-        <v>1.267629819945443</v>
+        <v>0.9627743207513845</v>
       </c>
       <c r="J14">
-        <v>0.5726370361259864</v>
+        <v>1.018810726048839</v>
       </c>
       <c r="K14">
-        <v>0.9451645460200326</v>
+        <v>1.040190149264109</v>
       </c>
       <c r="L14">
-        <v>0.8660412991064369</v>
+        <v>1.008465503273307</v>
       </c>
       <c r="M14">
-        <v>1.126711755372773</v>
+        <v>0.9674893531997246</v>
       </c>
       <c r="N14">
-        <v>1.126711755372773</v>
+        <v>0.9674893531997246</v>
       </c>
       <c r="O14">
-        <v>1.173684443563664</v>
+        <v>0.9659176757169446</v>
       </c>
       <c r="P14">
-        <v>1.06619601892186</v>
+        <v>0.9917229518878526</v>
       </c>
       <c r="Q14">
-        <v>1.06619601892186</v>
+        <v>0.9917229518878526</v>
       </c>
       <c r="R14">
-        <v>1.035938150696403</v>
+        <v>1.003839751231917</v>
       </c>
       <c r="S14">
-        <v>1.035938150696403</v>
+        <v>1.003839751231917</v>
       </c>
       <c r="T14">
-        <v>0.9879512158868189</v>
+        <v>0.9957296351854983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.204344669416117</v>
+        <v>0.9734428617116899</v>
       </c>
       <c r="D15">
-        <v>0.9565139702977612</v>
+        <v>1.014977157515625</v>
       </c>
       <c r="E15">
-        <v>0.965076745243274</v>
+        <v>1.0029013979578</v>
       </c>
       <c r="F15">
-        <v>1.204344669416117</v>
+        <v>0.9734428617116899</v>
       </c>
       <c r="G15">
-        <v>0.962654655792831</v>
+        <v>1.006386450018939</v>
       </c>
       <c r="H15">
-        <v>0.9565139702977612</v>
+        <v>1.014977157515625</v>
       </c>
       <c r="I15">
-        <v>1.063251345171247</v>
+        <v>0.986570278348513</v>
       </c>
       <c r="J15">
-        <v>0.963550663035824</v>
+        <v>1.006106885142706</v>
       </c>
       <c r="K15">
-        <v>0.9565139702977612</v>
+        <v>1.014977157515625</v>
       </c>
       <c r="L15">
-        <v>0.965076745243274</v>
+        <v>1.0029013979578</v>
       </c>
       <c r="M15">
-        <v>1.084710707329696</v>
+        <v>0.9881721298347451</v>
       </c>
       <c r="N15">
-        <v>1.084710707329696</v>
+        <v>0.9881721298347451</v>
       </c>
       <c r="O15">
-        <v>1.077557586610213</v>
+        <v>0.9876381793393344</v>
       </c>
       <c r="P15">
-        <v>1.041978461652384</v>
+        <v>0.9971071390617051</v>
       </c>
       <c r="Q15">
-        <v>1.041978461652384</v>
+        <v>0.9971071390617051</v>
       </c>
       <c r="R15">
-        <v>1.020612338813728</v>
+        <v>1.001574643675185</v>
       </c>
       <c r="S15">
-        <v>1.020612338813728</v>
+        <v>1.001574643675185</v>
       </c>
       <c r="T15">
-        <v>1.019232008159509</v>
+        <v>0.9983975051158791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.487517800602434</v>
+        <v>0.9485864204647523</v>
       </c>
       <c r="D16">
-        <v>1.271189901344025</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="E16">
-        <v>1.062739077281505</v>
+        <v>1.00580970841176</v>
       </c>
       <c r="F16">
-        <v>0.487517800602434</v>
+        <v>0.9485864204647523</v>
       </c>
       <c r="G16">
-        <v>1.123011223226758</v>
+        <v>1.012306877880765</v>
       </c>
       <c r="H16">
-        <v>1.271189901344025</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="I16">
-        <v>0.7403178689839948</v>
+        <v>0.9741613408913321</v>
       </c>
       <c r="J16">
-        <v>1.14021199943568</v>
+        <v>1.012222499601897</v>
       </c>
       <c r="K16">
-        <v>1.271189901344025</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="L16">
-        <v>1.062739077281505</v>
+        <v>1.00580970841176</v>
       </c>
       <c r="M16">
-        <v>0.7751284389419693</v>
+        <v>0.9771980644382561</v>
       </c>
       <c r="N16">
-        <v>0.7751284389419693</v>
+        <v>0.9771980644382561</v>
       </c>
       <c r="O16">
-        <v>0.7635249156226444</v>
+        <v>0.976185823255948</v>
       </c>
       <c r="P16">
-        <v>0.9404822597426543</v>
+        <v>0.994243748815744</v>
       </c>
       <c r="Q16">
-        <v>0.9404822597426543</v>
+        <v>0.994243748815744</v>
       </c>
       <c r="R16">
-        <v>1.023159170142997</v>
+        <v>1.002766591004488</v>
       </c>
       <c r="S16">
-        <v>1.023159170142997</v>
+        <v>1.002766591004488</v>
       </c>
       <c r="T16">
-        <v>0.9708313118123995</v>
+        <v>0.9969036608035377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6059237528279346</v>
+        <v>0.9023846930305747</v>
       </c>
       <c r="D17">
-        <v>1.176619600742172</v>
+        <v>1.053943951611927</v>
       </c>
       <c r="E17">
-        <v>1.064535102579297</v>
+        <v>1.01115955733649</v>
       </c>
       <c r="F17">
-        <v>0.6059237528279346</v>
+        <v>0.9023846930305747</v>
       </c>
       <c r="G17">
-        <v>1.09682827338109</v>
+        <v>1.023488807726177</v>
       </c>
       <c r="H17">
-        <v>1.176619600742172</v>
+        <v>1.053943951611927</v>
       </c>
       <c r="I17">
-        <v>0.7903241122139549</v>
+        <v>0.9504399494162845</v>
       </c>
       <c r="J17">
-        <v>1.165802536607133</v>
+        <v>1.024255985218116</v>
       </c>
       <c r="K17">
-        <v>1.176619600742172</v>
+        <v>1.053943951611927</v>
       </c>
       <c r="L17">
-        <v>1.064535102579297</v>
+        <v>1.01115955733649</v>
       </c>
       <c r="M17">
-        <v>0.8352294277036157</v>
+        <v>0.9567721251835322</v>
       </c>
       <c r="N17">
-        <v>0.8352294277036157</v>
+        <v>0.9567721251835322</v>
       </c>
       <c r="O17">
-        <v>0.8202609892070621</v>
+        <v>0.954661399927783</v>
       </c>
       <c r="P17">
-        <v>0.9490261520498012</v>
+        <v>0.989162733992997</v>
       </c>
       <c r="Q17">
-        <v>0.9490261520498012</v>
+        <v>0.9891627339929969</v>
       </c>
       <c r="R17">
-        <v>1.005924514222894</v>
+        <v>1.005358038397729</v>
       </c>
       <c r="S17">
-        <v>1.005924514222894</v>
+        <v>1.005358038397729</v>
       </c>
       <c r="T17">
-        <v>0.9833388963919302</v>
+        <v>0.9942788240565948</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8429782581045303</v>
+        <v>0.8581867241790017</v>
       </c>
       <c r="D18">
-        <v>0.988359997489324</v>
+        <v>1.079022760141631</v>
       </c>
       <c r="E18">
-        <v>1.067562084339636</v>
+        <v>1.016948704976939</v>
       </c>
       <c r="F18">
-        <v>0.8429782581045303</v>
+        <v>0.8581867241790017</v>
       </c>
       <c r="G18">
-        <v>1.044319578797712</v>
+        <v>1.034702805089668</v>
       </c>
       <c r="H18">
-        <v>0.988359997489324</v>
+        <v>1.079022760141631</v>
       </c>
       <c r="I18">
-        <v>0.8909220961323</v>
+        <v>0.9267395920419356</v>
       </c>
       <c r="J18">
-        <v>1.214560167183971</v>
+        <v>1.03525026542538</v>
       </c>
       <c r="K18">
-        <v>0.988359997489324</v>
+        <v>1.079022760141631</v>
       </c>
       <c r="L18">
-        <v>1.067562084339636</v>
+        <v>1.016948704976939</v>
       </c>
       <c r="M18">
-        <v>0.955270171222083</v>
+        <v>0.9375677145779704</v>
       </c>
       <c r="N18">
-        <v>0.955270171222083</v>
+        <v>0.9375677145779704</v>
       </c>
       <c r="O18">
-        <v>0.933820812858822</v>
+        <v>0.933958340399292</v>
       </c>
       <c r="P18">
-        <v>0.9663001133111634</v>
+        <v>0.9847193964325239</v>
       </c>
       <c r="Q18">
-        <v>0.9663001133111634</v>
+        <v>0.9847193964325239</v>
       </c>
       <c r="R18">
-        <v>0.9718150843557035</v>
+        <v>1.008295237359801</v>
       </c>
       <c r="S18">
-        <v>0.9718150843557035</v>
+        <v>1.008295237359801</v>
       </c>
       <c r="T18">
-        <v>1.008117030341246</v>
+        <v>0.9918084753090927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8483196833983438</v>
+        <v>0.9989120331000813</v>
       </c>
       <c r="D19">
-        <v>0.9691977815741735</v>
+        <v>0.9997137449332314</v>
       </c>
       <c r="E19">
-        <v>1.077850402563914</v>
+        <v>1.000570828227621</v>
       </c>
       <c r="F19">
-        <v>0.8483196833983438</v>
+        <v>0.9989120331000813</v>
       </c>
       <c r="G19">
-        <v>1.045958557969934</v>
+        <v>1.000317864279584</v>
       </c>
       <c r="H19">
-        <v>0.9691977815741735</v>
+        <v>0.9997137449332314</v>
       </c>
       <c r="I19">
-        <v>0.8808068773294035</v>
+        <v>0.9991767032483215</v>
       </c>
       <c r="J19">
-        <v>1.262273245341685</v>
+        <v>1.001895840611028</v>
       </c>
       <c r="K19">
-        <v>0.9691977815741735</v>
+        <v>0.9997137449332314</v>
       </c>
       <c r="L19">
-        <v>1.077850402563914</v>
+        <v>1.000570828227621</v>
       </c>
       <c r="M19">
-        <v>0.9630850429811288</v>
+        <v>0.999741430663851</v>
       </c>
       <c r="N19">
-        <v>0.9630850429811288</v>
+        <v>0.999741430663851</v>
       </c>
       <c r="O19">
-        <v>0.9356589877638871</v>
+        <v>0.9995531881920079</v>
       </c>
       <c r="P19">
-        <v>0.9651226225121438</v>
+        <v>0.9997322020869778</v>
       </c>
       <c r="Q19">
-        <v>0.9651226225121438</v>
+        <v>0.9997322020869778</v>
       </c>
       <c r="R19">
-        <v>0.9661414122776513</v>
+        <v>0.9997275877985412</v>
       </c>
       <c r="S19">
-        <v>0.9661414122776513</v>
+        <v>0.9997275877985412</v>
       </c>
       <c r="T19">
-        <v>1.014067758029576</v>
+        <v>1.000097835733311</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999062626873528</v>
+        <v>0.9972718477378</v>
       </c>
       <c r="D20">
-        <v>1.001490486272367</v>
+        <v>0.9992575784201656</v>
       </c>
       <c r="E20">
-        <v>0.999348420026906</v>
+        <v>1.001432109853603</v>
       </c>
       <c r="F20">
-        <v>0.9999062626873528</v>
+        <v>0.9972718477378</v>
       </c>
       <c r="G20">
-        <v>0.9999594330535264</v>
+        <v>1.00079193100475</v>
       </c>
       <c r="H20">
-        <v>1.001490486272367</v>
+        <v>0.9992575784201656</v>
       </c>
       <c r="I20">
-        <v>0.9998933113658568</v>
+        <v>0.9979769827853208</v>
       </c>
       <c r="J20">
-        <v>0.9992709351054423</v>
+        <v>1.00464239564093</v>
       </c>
       <c r="K20">
-        <v>1.001490486272367</v>
+        <v>0.9992575784201656</v>
       </c>
       <c r="L20">
-        <v>0.999348420026906</v>
+        <v>1.001432109853603</v>
       </c>
       <c r="M20">
-        <v>0.9996273413571295</v>
+        <v>0.9993519787957017</v>
       </c>
       <c r="N20">
-        <v>0.9996273413571295</v>
+        <v>0.9993519787957017</v>
       </c>
       <c r="O20">
-        <v>0.9997159980267053</v>
+        <v>0.9988936467922414</v>
       </c>
       <c r="P20">
-        <v>1.000248389662209</v>
+        <v>0.9993205120038563</v>
       </c>
       <c r="Q20">
-        <v>1.000248389662209</v>
+        <v>0.9993205120038563</v>
       </c>
       <c r="R20">
-        <v>1.000558913814748</v>
+        <v>0.9993047786079337</v>
       </c>
       <c r="S20">
-        <v>1.000558913814748</v>
+        <v>0.9993047786079337</v>
       </c>
       <c r="T20">
-        <v>0.9999781414185754</v>
+        <v>1.000228807573762</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9991048917051145</v>
+        <v>0.9962306473132339</v>
       </c>
       <c r="D21">
-        <v>0.9971791423995018</v>
+        <v>0.9989619313227168</v>
       </c>
       <c r="E21">
-        <v>1.001733566359245</v>
+        <v>1.001997837100616</v>
       </c>
       <c r="F21">
-        <v>0.9991048917051145</v>
+        <v>0.9962306473132339</v>
       </c>
       <c r="G21">
-        <v>1.000426202595526</v>
+        <v>1.001100775647939</v>
       </c>
       <c r="H21">
-        <v>0.9971791423995018</v>
+        <v>0.9989619313227168</v>
       </c>
       <c r="I21">
-        <v>0.999030569823539</v>
+        <v>0.9972716334696698</v>
       </c>
       <c r="J21">
-        <v>1.004232451384958</v>
+        <v>1.006083322336773</v>
       </c>
       <c r="K21">
-        <v>0.9971791423995018</v>
+        <v>0.9989619313227168</v>
       </c>
       <c r="L21">
-        <v>1.001733566359245</v>
+        <v>1.001997837100616</v>
       </c>
       <c r="M21">
-        <v>1.00041922903218</v>
+        <v>0.9991142422069249</v>
       </c>
       <c r="N21">
-        <v>1.00041922903218</v>
+        <v>0.9991142422069249</v>
       </c>
       <c r="O21">
-        <v>0.9999563426292997</v>
+        <v>0.9985000392945066</v>
       </c>
       <c r="P21">
-        <v>0.9993392001546205</v>
+        <v>0.9990634719121889</v>
       </c>
       <c r="Q21">
-        <v>0.9993392001546205</v>
+        <v>0.9990634719121889</v>
       </c>
       <c r="R21">
-        <v>0.9987991857158409</v>
+        <v>0.9990380867648209</v>
       </c>
       <c r="S21">
-        <v>0.9987991857158409</v>
+        <v>0.9990380867648209</v>
       </c>
       <c r="T21">
-        <v>1.000284470711314</v>
+        <v>1.000274357865158</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9906304065742622</v>
+        <v>0.9917730475837904</v>
       </c>
       <c r="D22">
-        <v>1.010237996183505</v>
+        <v>0.9978238189405574</v>
       </c>
       <c r="E22">
-        <v>0.9986085158584057</v>
+        <v>1.004297181178418</v>
       </c>
       <c r="F22">
-        <v>0.9906304065742622</v>
+        <v>0.9917730475837904</v>
       </c>
       <c r="G22">
-        <v>1.001890403751359</v>
+        <v>1.002385400072418</v>
       </c>
       <c r="H22">
-        <v>1.010237996183505</v>
+        <v>0.9978238189405574</v>
       </c>
       <c r="I22">
-        <v>0.9956602989773532</v>
+        <v>0.9940210552785382</v>
       </c>
       <c r="J22">
-        <v>0.997943436861094</v>
+        <v>1.013422715097621</v>
       </c>
       <c r="K22">
-        <v>1.010237996183505</v>
+        <v>0.9978238189405574</v>
       </c>
       <c r="L22">
-        <v>0.9986085158584057</v>
+        <v>1.004297181178418</v>
       </c>
       <c r="M22">
-        <v>0.9946194612163339</v>
+        <v>0.9980351143811041</v>
       </c>
       <c r="N22">
-        <v>0.9946194612163339</v>
+        <v>0.9980351143811041</v>
       </c>
       <c r="O22">
-        <v>0.9949664071366736</v>
+        <v>0.9966970946802488</v>
       </c>
       <c r="P22">
-        <v>0.9998256395387243</v>
+        <v>0.9979646825675886</v>
       </c>
       <c r="Q22">
-        <v>0.9998256395387243</v>
+        <v>0.9979646825675884</v>
       </c>
       <c r="R22">
-        <v>1.002428728699919</v>
+        <v>0.9979294666608307</v>
       </c>
       <c r="S22">
-        <v>1.002428728699919</v>
+        <v>0.9979294666608307</v>
       </c>
       <c r="T22">
-        <v>0.9991618430343298</v>
+        <v>1.000620536358557</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9863662072562126</v>
+      </c>
+      <c r="D23">
+        <v>0.9964841701949199</v>
+      </c>
+      <c r="E23">
+        <v>1.00703720932374</v>
+      </c>
+      <c r="F23">
+        <v>0.9863662072562126</v>
+      </c>
+      <c r="G23">
+        <v>1.00392028881124</v>
+      </c>
+      <c r="H23">
+        <v>0.9964841701949199</v>
+      </c>
+      <c r="I23">
+        <v>0.9903553289382008</v>
+      </c>
+      <c r="J23">
+        <v>1.021267971612335</v>
+      </c>
+      <c r="K23">
+        <v>0.9964841701949199</v>
+      </c>
+      <c r="L23">
+        <v>1.00703720932374</v>
+      </c>
+      <c r="M23">
+        <v>0.9967017082899763</v>
+      </c>
+      <c r="N23">
+        <v>0.9967017082899763</v>
+      </c>
+      <c r="O23">
+        <v>0.9945862485060512</v>
+      </c>
+      <c r="P23">
+        <v>0.9966291955916242</v>
+      </c>
+      <c r="Q23">
+        <v>0.9966291955916242</v>
+      </c>
+      <c r="R23">
+        <v>0.9965929392424482</v>
+      </c>
+      <c r="S23">
+        <v>0.9965929392424482</v>
+      </c>
+      <c r="T23">
+        <v>1.000905196022775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.057020441297235</v>
+      </c>
+      <c r="D24">
+        <v>1.163465786148756</v>
+      </c>
+      <c r="E24">
+        <v>0.8901132375047996</v>
+      </c>
+      <c r="F24">
+        <v>1.057020441297235</v>
+      </c>
+      <c r="G24">
+        <v>0.9698820977595264</v>
+      </c>
+      <c r="H24">
+        <v>1.163465786148756</v>
+      </c>
+      <c r="I24">
+        <v>1.083172435396266</v>
+      </c>
+      <c r="J24">
+        <v>0.6813456698330564</v>
+      </c>
+      <c r="K24">
+        <v>1.163465786148756</v>
+      </c>
+      <c r="L24">
+        <v>0.8901132375047996</v>
+      </c>
+      <c r="M24">
+        <v>0.9735668394010175</v>
+      </c>
+      <c r="N24">
+        <v>0.9735668394010175</v>
+      </c>
+      <c r="O24">
+        <v>1.0101020380661</v>
+      </c>
+      <c r="P24">
+        <v>1.036866488316931</v>
+      </c>
+      <c r="Q24">
+        <v>1.03686648831693</v>
+      </c>
+      <c r="R24">
+        <v>1.068516312774887</v>
+      </c>
+      <c r="S24">
+        <v>1.068516312774887</v>
+      </c>
+      <c r="T24">
+        <v>0.9741666113232732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.079184351565757</v>
+      </c>
+      <c r="D25">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="E25">
+        <v>1.025296711242839</v>
+      </c>
+      <c r="F25">
+        <v>1.079184351565757</v>
+      </c>
+      <c r="G25">
+        <v>0.9875322166970538</v>
+      </c>
+      <c r="H25">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="I25">
+        <v>1.025626328957357</v>
+      </c>
+      <c r="J25">
+        <v>1.05327314256508</v>
+      </c>
+      <c r="K25">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="L25">
+        <v>1.025296711242839</v>
+      </c>
+      <c r="M25">
+        <v>1.052240531404298</v>
+      </c>
+      <c r="N25">
+        <v>1.052240531404298</v>
+      </c>
+      <c r="O25">
+        <v>1.043369130588651</v>
+      </c>
+      <c r="P25">
+        <v>1.000131021325834</v>
+      </c>
+      <c r="Q25">
+        <v>1.000131021325834</v>
+      </c>
+      <c r="R25">
+        <v>0.9740762662866016</v>
+      </c>
+      <c r="S25">
+        <v>0.9740762662866016</v>
+      </c>
+      <c r="T25">
+        <v>1.011137458699499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.38738221163911</v>
+      </c>
+      <c r="D26">
+        <v>0.9451645460200326</v>
+      </c>
+      <c r="E26">
+        <v>0.8660412991064369</v>
+      </c>
+      <c r="F26">
+        <v>1.38738221163911</v>
+      </c>
+      <c r="G26">
+        <v>0.8888523824839044</v>
+      </c>
+      <c r="H26">
+        <v>0.9451645460200326</v>
+      </c>
+      <c r="I26">
+        <v>1.267629819945443</v>
+      </c>
+      <c r="J26">
+        <v>0.5726370361259864</v>
+      </c>
+      <c r="K26">
+        <v>0.9451645460200326</v>
+      </c>
+      <c r="L26">
+        <v>0.8660412991064369</v>
+      </c>
+      <c r="M26">
+        <v>1.126711755372773</v>
+      </c>
+      <c r="N26">
+        <v>1.126711755372773</v>
+      </c>
+      <c r="O26">
+        <v>1.173684443563664</v>
+      </c>
+      <c r="P26">
+        <v>1.06619601892186</v>
+      </c>
+      <c r="Q26">
+        <v>1.06619601892186</v>
+      </c>
+      <c r="R26">
+        <v>1.035938150696403</v>
+      </c>
+      <c r="S26">
+        <v>1.035938150696403</v>
+      </c>
+      <c r="T26">
+        <v>0.9879512158868189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.204344669416117</v>
+      </c>
+      <c r="D27">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="E27">
+        <v>0.965076745243274</v>
+      </c>
+      <c r="F27">
+        <v>1.204344669416117</v>
+      </c>
+      <c r="G27">
+        <v>0.962654655792831</v>
+      </c>
+      <c r="H27">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="I27">
+        <v>1.063251345171247</v>
+      </c>
+      <c r="J27">
+        <v>0.963550663035824</v>
+      </c>
+      <c r="K27">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="L27">
+        <v>0.965076745243274</v>
+      </c>
+      <c r="M27">
+        <v>1.084710707329696</v>
+      </c>
+      <c r="N27">
+        <v>1.084710707329696</v>
+      </c>
+      <c r="O27">
+        <v>1.077557586610213</v>
+      </c>
+      <c r="P27">
+        <v>1.041978461652384</v>
+      </c>
+      <c r="Q27">
+        <v>1.041978461652384</v>
+      </c>
+      <c r="R27">
+        <v>1.020612338813728</v>
+      </c>
+      <c r="S27">
+        <v>1.020612338813728</v>
+      </c>
+      <c r="T27">
+        <v>1.019232008159509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.487517800602434</v>
+      </c>
+      <c r="D28">
+        <v>1.271189901344025</v>
+      </c>
+      <c r="E28">
+        <v>1.062739077281505</v>
+      </c>
+      <c r="F28">
+        <v>0.487517800602434</v>
+      </c>
+      <c r="G28">
+        <v>1.123011223226758</v>
+      </c>
+      <c r="H28">
+        <v>1.271189901344025</v>
+      </c>
+      <c r="I28">
+        <v>0.7403178689839948</v>
+      </c>
+      <c r="J28">
+        <v>1.14021199943568</v>
+      </c>
+      <c r="K28">
+        <v>1.271189901344025</v>
+      </c>
+      <c r="L28">
+        <v>1.062739077281505</v>
+      </c>
+      <c r="M28">
+        <v>0.7751284389419693</v>
+      </c>
+      <c r="N28">
+        <v>0.7751284389419693</v>
+      </c>
+      <c r="O28">
+        <v>0.7635249156226444</v>
+      </c>
+      <c r="P28">
+        <v>0.9404822597426543</v>
+      </c>
+      <c r="Q28">
+        <v>0.9404822597426543</v>
+      </c>
+      <c r="R28">
+        <v>1.023159170142997</v>
+      </c>
+      <c r="S28">
+        <v>1.023159170142997</v>
+      </c>
+      <c r="T28">
+        <v>0.9708313118123995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.6059237528279346</v>
+      </c>
+      <c r="D29">
+        <v>1.176619600742172</v>
+      </c>
+      <c r="E29">
+        <v>1.064535102579297</v>
+      </c>
+      <c r="F29">
+        <v>0.6059237528279346</v>
+      </c>
+      <c r="G29">
+        <v>1.09682827338109</v>
+      </c>
+      <c r="H29">
+        <v>1.176619600742172</v>
+      </c>
+      <c r="I29">
+        <v>0.7903241122139549</v>
+      </c>
+      <c r="J29">
+        <v>1.165802536607133</v>
+      </c>
+      <c r="K29">
+        <v>1.176619600742172</v>
+      </c>
+      <c r="L29">
+        <v>1.064535102579297</v>
+      </c>
+      <c r="M29">
+        <v>0.8352294277036157</v>
+      </c>
+      <c r="N29">
+        <v>0.8352294277036157</v>
+      </c>
+      <c r="O29">
+        <v>0.8202609892070621</v>
+      </c>
+      <c r="P29">
+        <v>0.9490261520498012</v>
+      </c>
+      <c r="Q29">
+        <v>0.9490261520498012</v>
+      </c>
+      <c r="R29">
+        <v>1.005924514222894</v>
+      </c>
+      <c r="S29">
+        <v>1.005924514222894</v>
+      </c>
+      <c r="T29">
+        <v>0.9833388963919302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8429782581045303</v>
+      </c>
+      <c r="D30">
+        <v>0.988359997489324</v>
+      </c>
+      <c r="E30">
+        <v>1.067562084339636</v>
+      </c>
+      <c r="F30">
+        <v>0.8429782581045303</v>
+      </c>
+      <c r="G30">
+        <v>1.044319578797712</v>
+      </c>
+      <c r="H30">
+        <v>0.988359997489324</v>
+      </c>
+      <c r="I30">
+        <v>0.8909220961323</v>
+      </c>
+      <c r="J30">
+        <v>1.214560167183971</v>
+      </c>
+      <c r="K30">
+        <v>0.988359997489324</v>
+      </c>
+      <c r="L30">
+        <v>1.067562084339636</v>
+      </c>
+      <c r="M30">
+        <v>0.955270171222083</v>
+      </c>
+      <c r="N30">
+        <v>0.955270171222083</v>
+      </c>
+      <c r="O30">
+        <v>0.933820812858822</v>
+      </c>
+      <c r="P30">
+        <v>0.9663001133111634</v>
+      </c>
+      <c r="Q30">
+        <v>0.9663001133111634</v>
+      </c>
+      <c r="R30">
+        <v>0.9718150843557035</v>
+      </c>
+      <c r="S30">
+        <v>0.9718150843557035</v>
+      </c>
+      <c r="T30">
+        <v>1.008117030341246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8483196833983438</v>
+      </c>
+      <c r="D31">
+        <v>0.9691977815741735</v>
+      </c>
+      <c r="E31">
+        <v>1.077850402563914</v>
+      </c>
+      <c r="F31">
+        <v>0.8483196833983438</v>
+      </c>
+      <c r="G31">
+        <v>1.045958557969934</v>
+      </c>
+      <c r="H31">
+        <v>0.9691977815741735</v>
+      </c>
+      <c r="I31">
+        <v>0.8808068773294035</v>
+      </c>
+      <c r="J31">
+        <v>1.262273245341685</v>
+      </c>
+      <c r="K31">
+        <v>0.9691977815741735</v>
+      </c>
+      <c r="L31">
+        <v>1.077850402563914</v>
+      </c>
+      <c r="M31">
+        <v>0.9630850429811288</v>
+      </c>
+      <c r="N31">
+        <v>0.9630850429811288</v>
+      </c>
+      <c r="O31">
+        <v>0.9356589877638871</v>
+      </c>
+      <c r="P31">
+        <v>0.9651226225121438</v>
+      </c>
+      <c r="Q31">
+        <v>0.9651226225121438</v>
+      </c>
+      <c r="R31">
+        <v>0.9661414122776513</v>
+      </c>
+      <c r="S31">
+        <v>0.9661414122776513</v>
+      </c>
+      <c r="T31">
+        <v>1.014067758029576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.3755620860273973</v>
+      </c>
+      <c r="D32">
+        <v>1.357486290136986</v>
+      </c>
+      <c r="E32">
+        <v>1.062217725205479</v>
+      </c>
+      <c r="F32">
+        <v>0.3755620860273973</v>
+      </c>
+      <c r="G32">
+        <v>1.1476417</v>
+      </c>
+      <c r="H32">
+        <v>1.357486290136986</v>
+      </c>
+      <c r="I32">
+        <v>0.6944910523287672</v>
+      </c>
+      <c r="J32">
+        <v>1.113727019041096</v>
+      </c>
+      <c r="K32">
+        <v>1.357486290136986</v>
+      </c>
+      <c r="L32">
+        <v>1.062217725205479</v>
+      </c>
+      <c r="M32">
+        <v>0.7188899056164382</v>
+      </c>
+      <c r="N32">
+        <v>0.7188899056164382</v>
+      </c>
+      <c r="O32">
+        <v>0.7107569545205479</v>
+      </c>
+      <c r="P32">
+        <v>0.9317553671232875</v>
+      </c>
+      <c r="Q32">
+        <v>0.9317553671232875</v>
+      </c>
+      <c r="R32">
+        <v>1.038188097876712</v>
+      </c>
+      <c r="S32">
+        <v>1.038188097876712</v>
+      </c>
+      <c r="T32">
+        <v>0.9585209787899545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8809067012105262</v>
+      </c>
+      <c r="D33">
+        <v>1.010713346842105</v>
+      </c>
+      <c r="E33">
+        <v>1.019101338421053</v>
+      </c>
+      <c r="F33">
+        <v>0.8809067012105262</v>
+      </c>
+      <c r="G33">
+        <v>1.015639561578948</v>
+      </c>
+      <c r="H33">
+        <v>1.010713346842105</v>
+      </c>
+      <c r="I33">
+        <v>0.9825337589473684</v>
+      </c>
+      <c r="J33">
+        <v>0.9962871910526316</v>
+      </c>
+      <c r="K33">
+        <v>1.010713346842105</v>
+      </c>
+      <c r="L33">
+        <v>1.019101338421053</v>
+      </c>
+      <c r="M33">
+        <v>0.9500040198157893</v>
+      </c>
+      <c r="N33">
+        <v>0.9500040198157893</v>
+      </c>
+      <c r="O33">
+        <v>0.9608472661929822</v>
+      </c>
+      <c r="P33">
+        <v>0.9702404621578946</v>
+      </c>
+      <c r="Q33">
+        <v>0.9702404621578946</v>
+      </c>
+      <c r="R33">
+        <v>0.9803586833289473</v>
+      </c>
+      <c r="S33">
+        <v>0.9803586833289473</v>
+      </c>
+      <c r="T33">
+        <v>0.9841969830087717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9585690914736843</v>
+      </c>
+      <c r="D34">
+        <v>0.8604701463157894</v>
+      </c>
+      <c r="E34">
+        <v>1.110923122631579</v>
+      </c>
+      <c r="F34">
+        <v>0.9585690914736843</v>
+      </c>
+      <c r="G34">
+        <v>1.036366642631579</v>
+      </c>
+      <c r="H34">
+        <v>0.8604701463157894</v>
+      </c>
+      <c r="I34">
+        <v>0.87243632</v>
+      </c>
+      <c r="J34">
+        <v>1.426944999473684</v>
+      </c>
+      <c r="K34">
+        <v>0.8604701463157894</v>
+      </c>
+      <c r="L34">
+        <v>1.110923122631579</v>
+      </c>
+      <c r="M34">
+        <v>1.034746107052632</v>
+      </c>
+      <c r="N34">
+        <v>1.034746107052632</v>
+      </c>
+      <c r="O34">
+        <v>0.9806428447017547</v>
+      </c>
+      <c r="P34">
+        <v>0.976654120140351</v>
+      </c>
+      <c r="Q34">
+        <v>0.9766541201403509</v>
+      </c>
+      <c r="R34">
+        <v>0.9476081266842106</v>
+      </c>
+      <c r="S34">
+        <v>0.9476081266842106</v>
+      </c>
+      <c r="T34">
+        <v>1.044285053754386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4571487785429738</v>
+      </c>
+      <c r="D35">
+        <v>0.8566779304032042</v>
+      </c>
+      <c r="E35">
+        <v>1.287425529766712</v>
+      </c>
+      <c r="F35">
+        <v>0.4571487785429738</v>
+      </c>
+      <c r="G35">
+        <v>1.16040157636256</v>
+      </c>
+      <c r="H35">
+        <v>0.8566779304032042</v>
+      </c>
+      <c r="I35">
+        <v>0.5730665886577895</v>
+      </c>
+      <c r="J35">
+        <v>2.002209585742484</v>
+      </c>
+      <c r="K35">
+        <v>0.8566779304032042</v>
+      </c>
+      <c r="L35">
+        <v>1.287425529766712</v>
+      </c>
+      <c r="M35">
+        <v>0.8722871541548427</v>
+      </c>
+      <c r="N35">
+        <v>0.8722871541548427</v>
+      </c>
+      <c r="O35">
+        <v>0.7725469656558249</v>
+      </c>
+      <c r="P35">
+        <v>0.8670840795709632</v>
+      </c>
+      <c r="Q35">
+        <v>0.8670840795709632</v>
+      </c>
+      <c r="R35">
+        <v>0.8644825422790234</v>
+      </c>
+      <c r="S35">
+        <v>0.8644825422790234</v>
+      </c>
+      <c r="T35">
+        <v>1.056154998245954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999062626873528</v>
+      </c>
+      <c r="D36">
+        <v>1.001490486272367</v>
+      </c>
+      <c r="E36">
+        <v>0.999348420026906</v>
+      </c>
+      <c r="F36">
+        <v>0.9999062626873528</v>
+      </c>
+      <c r="G36">
+        <v>0.9999594330535264</v>
+      </c>
+      <c r="H36">
+        <v>1.001490486272367</v>
+      </c>
+      <c r="I36">
+        <v>0.9998933113658568</v>
+      </c>
+      <c r="J36">
+        <v>0.9992709351054423</v>
+      </c>
+      <c r="K36">
+        <v>1.001490486272367</v>
+      </c>
+      <c r="L36">
+        <v>0.999348420026906</v>
+      </c>
+      <c r="M36">
+        <v>0.9996273413571295</v>
+      </c>
+      <c r="N36">
+        <v>0.9996273413571295</v>
+      </c>
+      <c r="O36">
+        <v>0.9997159980267053</v>
+      </c>
+      <c r="P36">
+        <v>1.000248389662209</v>
+      </c>
+      <c r="Q36">
+        <v>1.000248389662209</v>
+      </c>
+      <c r="R36">
+        <v>1.000558913814748</v>
+      </c>
+      <c r="S36">
+        <v>1.000558913814748</v>
+      </c>
+      <c r="T36">
+        <v>0.9999781414185754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9991048917051145</v>
+      </c>
+      <c r="D37">
+        <v>0.9971791423995018</v>
+      </c>
+      <c r="E37">
+        <v>1.001733566359245</v>
+      </c>
+      <c r="F37">
+        <v>0.9991048917051145</v>
+      </c>
+      <c r="G37">
+        <v>1.000426202595526</v>
+      </c>
+      <c r="H37">
+        <v>0.9971791423995018</v>
+      </c>
+      <c r="I37">
+        <v>0.999030569823539</v>
+      </c>
+      <c r="J37">
+        <v>1.004232451384958</v>
+      </c>
+      <c r="K37">
+        <v>0.9971791423995018</v>
+      </c>
+      <c r="L37">
+        <v>1.001733566359245</v>
+      </c>
+      <c r="M37">
+        <v>1.00041922903218</v>
+      </c>
+      <c r="N37">
+        <v>1.00041922903218</v>
+      </c>
+      <c r="O37">
+        <v>0.9999563426292997</v>
+      </c>
+      <c r="P37">
+        <v>0.9993392001546205</v>
+      </c>
+      <c r="Q37">
+        <v>0.9993392001546205</v>
+      </c>
+      <c r="R37">
+        <v>0.9987991857158409</v>
+      </c>
+      <c r="S37">
+        <v>0.9987991857158409</v>
+      </c>
+      <c r="T37">
+        <v>1.000284470711314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9906304065742622</v>
+      </c>
+      <c r="D38">
+        <v>1.010237996183505</v>
+      </c>
+      <c r="E38">
+        <v>0.9986085158584057</v>
+      </c>
+      <c r="F38">
+        <v>0.9906304065742622</v>
+      </c>
+      <c r="G38">
+        <v>1.001890403751359</v>
+      </c>
+      <c r="H38">
+        <v>1.010237996183505</v>
+      </c>
+      <c r="I38">
+        <v>0.9956602989773532</v>
+      </c>
+      <c r="J38">
+        <v>0.997943436861094</v>
+      </c>
+      <c r="K38">
+        <v>1.010237996183505</v>
+      </c>
+      <c r="L38">
+        <v>0.9986085158584057</v>
+      </c>
+      <c r="M38">
+        <v>0.9946194612163339</v>
+      </c>
+      <c r="N38">
+        <v>0.9946194612163339</v>
+      </c>
+      <c r="O38">
+        <v>0.9949664071366736</v>
+      </c>
+      <c r="P38">
+        <v>0.9998256395387243</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998256395387243</v>
+      </c>
+      <c r="R38">
+        <v>1.002428728699919</v>
+      </c>
+      <c r="S38">
+        <v>1.002428728699919</v>
+      </c>
+      <c r="T38">
+        <v>0.9991618430343298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.975033178802916</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.037583542761666</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9913764938602087</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.975033178802916</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.004687387076846</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.037583542761666</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9891707789588841</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9840007695811178</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.037583542761666</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9913764938602087</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9832048363315623</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9832048363315623</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9851934838740029</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001331071808264</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001331071808263</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.010394189546614</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.010394189546614</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9969753585069396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8997102194046918</v>
+      </c>
+      <c r="D40">
+        <v>1.088158335966738</v>
+      </c>
+      <c r="E40">
+        <v>0.9937594355530149</v>
+      </c>
+      <c r="F40">
+        <v>0.8997102194046918</v>
+      </c>
+      <c r="G40">
+        <v>1.021034795068141</v>
+      </c>
+      <c r="H40">
+        <v>1.088158335966738</v>
+      </c>
+      <c r="I40">
+        <v>0.9560452919021034</v>
+      </c>
+      <c r="J40">
+        <v>0.9852737853881289</v>
+      </c>
+      <c r="K40">
+        <v>1.088158335966738</v>
+      </c>
+      <c r="L40">
+        <v>0.9937594355530149</v>
+      </c>
+      <c r="M40">
+        <v>0.9467348274788534</v>
+      </c>
+      <c r="N40">
+        <v>0.9467348274788534</v>
+      </c>
+      <c r="O40">
+        <v>0.9498383156199367</v>
+      </c>
+      <c r="P40">
+        <v>0.9938759969748148</v>
+      </c>
+      <c r="Q40">
+        <v>0.9938759969748148</v>
+      </c>
+      <c r="R40">
+        <v>1.017446581722796</v>
+      </c>
+      <c r="S40">
+        <v>1.017446581722796</v>
+      </c>
+      <c r="T40">
+        <v>0.9906636438804695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9948231248202706</v>
+      </c>
+      <c r="D41">
+        <v>0.9951325792991548</v>
+      </c>
+      <c r="E41">
+        <v>1.005340123013105</v>
+      </c>
+      <c r="F41">
+        <v>0.9948231248202706</v>
+      </c>
+      <c r="G41">
+        <v>1.002403994840326</v>
+      </c>
+      <c r="H41">
+        <v>0.9951325792991548</v>
+      </c>
+      <c r="I41">
+        <v>0.9924926623472474</v>
+      </c>
+      <c r="J41">
+        <v>1.021361705533702</v>
+      </c>
+      <c r="K41">
+        <v>0.9951325792991548</v>
+      </c>
+      <c r="L41">
+        <v>1.005340123013105</v>
+      </c>
+      <c r="M41">
+        <v>1.000081623916688</v>
+      </c>
+      <c r="N41">
+        <v>1.000081623916688</v>
+      </c>
+      <c r="O41">
+        <v>0.9975519700602078</v>
+      </c>
+      <c r="P41">
+        <v>0.9984319423775102</v>
+      </c>
+      <c r="Q41">
+        <v>0.99843194237751</v>
+      </c>
+      <c r="R41">
+        <v>0.9976071016079212</v>
+      </c>
+      <c r="S41">
+        <v>0.9976071016079212</v>
+      </c>
+      <c r="T41">
+        <v>1.001925698308967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6410842157646989</v>
+      </c>
+      <c r="D42">
+        <v>1.144658337051176</v>
+      </c>
+      <c r="E42">
+        <v>1.065044166219613</v>
+      </c>
+      <c r="F42">
+        <v>0.6410842157646989</v>
+      </c>
+      <c r="G42">
+        <v>1.087997385801428</v>
+      </c>
+      <c r="H42">
+        <v>1.144658337051176</v>
+      </c>
+      <c r="I42">
+        <v>0.8068103348348606</v>
+      </c>
+      <c r="J42">
+        <v>1.178425061562233</v>
+      </c>
+      <c r="K42">
+        <v>1.144658337051176</v>
+      </c>
+      <c r="L42">
+        <v>1.065044166219613</v>
+      </c>
+      <c r="M42">
+        <v>0.8530641909921559</v>
+      </c>
+      <c r="N42">
+        <v>0.8530641909921559</v>
+      </c>
+      <c r="O42">
+        <v>0.8376462389397242</v>
+      </c>
+      <c r="P42">
+        <v>0.9502622396784958</v>
+      </c>
+      <c r="Q42">
+        <v>0.9502622396784958</v>
+      </c>
+      <c r="R42">
+        <v>0.9988612640216658</v>
+      </c>
+      <c r="S42">
+        <v>0.9988612640216658</v>
+      </c>
+      <c r="T42">
+        <v>0.9873365835390016</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.014977157515625</v>
+        <v>0.9972718477378</v>
       </c>
       <c r="D3">
-        <v>0.9734428617116901</v>
+        <v>0.9992575784201656</v>
       </c>
       <c r="E3">
-        <v>1.0029013979578</v>
+        <v>1.001432109853603</v>
       </c>
       <c r="F3">
-        <v>1.014977157515625</v>
+        <v>0.9972718477378</v>
       </c>
       <c r="G3">
-        <v>1.006106885142706</v>
+        <v>1.00079193100475</v>
       </c>
       <c r="H3">
-        <v>0.986570278348513</v>
+        <v>0.9992575784201656</v>
       </c>
       <c r="I3">
-        <v>1.006386450018939</v>
+        <v>0.9979769827853208</v>
       </c>
       <c r="J3">
-        <v>0.9734428617116901</v>
+        <v>1.00464239564093</v>
       </c>
       <c r="K3">
-        <v>1.014977157515625</v>
+        <v>0.9992575784201656</v>
       </c>
       <c r="L3">
-        <v>1.0029013979578</v>
+        <v>1.001432109853603</v>
       </c>
       <c r="M3">
-        <v>0.9881721298347452</v>
+        <v>0.9993519787957017</v>
       </c>
       <c r="N3">
-        <v>0.9881721298347452</v>
+        <v>0.9993519787957017</v>
       </c>
       <c r="O3">
-        <v>0.9876381793393345</v>
+        <v>0.9988936467922414</v>
       </c>
       <c r="P3">
-        <v>0.9971071390617053</v>
+        <v>0.9993205120038563</v>
       </c>
       <c r="Q3">
-        <v>0.9971071390617053</v>
+        <v>0.9993205120038563</v>
       </c>
       <c r="R3">
-        <v>1.001574643675185</v>
+        <v>0.9993047786079337</v>
       </c>
       <c r="S3">
-        <v>1.001574643675185</v>
+        <v>0.9993047786079337</v>
       </c>
       <c r="T3">
-        <v>0.9983975051158791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000228807573762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.028335117570719</v>
+        <v>0.8997102194046918</v>
       </c>
       <c r="D4">
-        <v>0.9485864204647523</v>
+        <v>1.088158335966738</v>
       </c>
       <c r="E4">
-        <v>1.00580970841176</v>
+        <v>0.9937594355530149</v>
       </c>
       <c r="F4">
-        <v>1.028335117570719</v>
+        <v>0.8997102194046918</v>
       </c>
       <c r="G4">
-        <v>1.012222499601897</v>
+        <v>1.021034795068141</v>
       </c>
       <c r="H4">
-        <v>0.9741613408913321</v>
+        <v>1.088158335966738</v>
       </c>
       <c r="I4">
-        <v>1.012306877880765</v>
+        <v>0.9560452919021034</v>
       </c>
       <c r="J4">
-        <v>0.9485864204647523</v>
+        <v>0.9852737853881289</v>
       </c>
       <c r="K4">
-        <v>1.028335117570719</v>
+        <v>1.088158335966738</v>
       </c>
       <c r="L4">
-        <v>1.00580970841176</v>
+        <v>0.9937594355530149</v>
       </c>
       <c r="M4">
-        <v>0.9771980644382561</v>
+        <v>0.9467348274788534</v>
       </c>
       <c r="N4">
-        <v>0.9771980644382561</v>
+        <v>0.9467348274788534</v>
       </c>
       <c r="O4">
-        <v>0.976185823255948</v>
+        <v>0.9498383156199367</v>
       </c>
       <c r="P4">
-        <v>0.994243748815744</v>
+        <v>0.9938759969748148</v>
       </c>
       <c r="Q4">
-        <v>0.994243748815744</v>
+        <v>0.9938759969748148</v>
       </c>
       <c r="R4">
-        <v>1.002766591004488</v>
+        <v>1.017446581722796</v>
       </c>
       <c r="S4">
-        <v>1.002766591004488</v>
+        <v>1.017446581722796</v>
       </c>
       <c r="T4">
-        <v>0.9969036608035377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9906636438804695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.053943951611927</v>
+        <v>0.8150388530072072</v>
       </c>
       <c r="D5">
-        <v>0.9023846930305747</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="E5">
-        <v>1.01115955733649</v>
+        <v>1.07902729448847</v>
       </c>
       <c r="F5">
-        <v>1.053943951611927</v>
+        <v>0.8150388530072072</v>
       </c>
       <c r="G5">
-        <v>1.024255985218116</v>
+        <v>1.052310032658501</v>
       </c>
       <c r="H5">
-        <v>0.9504399494162845</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="I5">
-        <v>1.023488807726177</v>
+        <v>0.8702057462536014</v>
       </c>
       <c r="J5">
-        <v>0.9023846930305747</v>
+        <v>1.255457197312681</v>
       </c>
       <c r="K5">
-        <v>1.053943951611927</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="L5">
-        <v>1.01115955733649</v>
+        <v>1.07902729448847</v>
       </c>
       <c r="M5">
-        <v>0.9567721251835322</v>
+        <v>0.9470330737478385</v>
       </c>
       <c r="N5">
-        <v>0.9567721251835322</v>
+        <v>0.9470330737478385</v>
       </c>
       <c r="O5">
-        <v>0.954661399927783</v>
+        <v>0.9214239645830928</v>
       </c>
       <c r="P5">
-        <v>0.989162733992997</v>
+        <v>0.9607595200345815</v>
       </c>
       <c r="Q5">
-        <v>0.9891627339929969</v>
+        <v>0.9607595200345814</v>
       </c>
       <c r="R5">
-        <v>1.005358038397729</v>
+        <v>0.9676227431779529</v>
       </c>
       <c r="S5">
-        <v>1.005358038397729</v>
+        <v>0.9676227431779529</v>
       </c>
       <c r="T5">
-        <v>0.9942788240565948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.010041922721421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.079022760141631</v>
+        <v>0.4571487785429738</v>
       </c>
       <c r="D6">
-        <v>0.8581867241790017</v>
+        <v>0.8566779304032042</v>
       </c>
       <c r="E6">
-        <v>1.016948704976939</v>
+        <v>1.287425529766712</v>
       </c>
       <c r="F6">
-        <v>1.079022760141631</v>
+        <v>0.4571487785429738</v>
       </c>
       <c r="G6">
-        <v>1.03525026542538</v>
+        <v>1.16040157636256</v>
       </c>
       <c r="H6">
-        <v>0.9267395920419356</v>
+        <v>0.8566779304032042</v>
       </c>
       <c r="I6">
-        <v>1.034702805089668</v>
+        <v>0.5730665886577895</v>
       </c>
       <c r="J6">
-        <v>0.8581867241790017</v>
+        <v>2.002209585742484</v>
       </c>
       <c r="K6">
-        <v>1.079022760141631</v>
+        <v>0.8566779304032042</v>
       </c>
       <c r="L6">
-        <v>1.016948704976939</v>
+        <v>1.287425529766712</v>
       </c>
       <c r="M6">
-        <v>0.9375677145779704</v>
+        <v>0.8722871541548427</v>
       </c>
       <c r="N6">
-        <v>0.9375677145779704</v>
+        <v>0.8722871541548427</v>
       </c>
       <c r="O6">
-        <v>0.933958340399292</v>
+        <v>0.7725469656558249</v>
       </c>
       <c r="P6">
-        <v>0.9847193964325239</v>
+        <v>0.8670840795709632</v>
       </c>
       <c r="Q6">
-        <v>0.9847193964325239</v>
+        <v>0.8670840795709632</v>
       </c>
       <c r="R6">
-        <v>1.008295237359801</v>
+        <v>0.8644825422790234</v>
       </c>
       <c r="S6">
-        <v>1.008295237359801</v>
+        <v>0.8644825422790234</v>
       </c>
       <c r="T6">
-        <v>0.9918084753090927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.056154998245954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997137449332311</v>
+        <v>0.9709388782726743</v>
       </c>
       <c r="D7">
-        <v>0.9989120331000807</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="E7">
-        <v>1.000570828227621</v>
+        <v>1.003425641508906</v>
       </c>
       <c r="F7">
-        <v>0.9997137449332311</v>
+        <v>0.9709388782726743</v>
       </c>
       <c r="G7">
-        <v>1.001895840611028</v>
+        <v>1.006968883798775</v>
       </c>
       <c r="H7">
-        <v>0.9991767032483218</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="I7">
-        <v>1.000317864279584</v>
+        <v>0.9853757661191058</v>
       </c>
       <c r="J7">
-        <v>0.9989120331000807</v>
+        <v>1.007243763967109</v>
       </c>
       <c r="K7">
-        <v>0.9997137449332311</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="L7">
-        <v>1.000570828227621</v>
+        <v>1.003425641508906</v>
       </c>
       <c r="M7">
-        <v>0.9997414306638509</v>
+        <v>0.98718225989079</v>
       </c>
       <c r="N7">
-        <v>0.9997414306638509</v>
+        <v>0.98718225989079</v>
       </c>
       <c r="O7">
-        <v>0.9995531881920079</v>
+        <v>0.9865800953002286</v>
       </c>
       <c r="P7">
-        <v>0.9997322020869777</v>
+        <v>0.9966843326196657</v>
       </c>
       <c r="Q7">
-        <v>0.9997322020869776</v>
+        <v>0.9966843326196658</v>
       </c>
       <c r="R7">
-        <v>0.9997275877985409</v>
+        <v>1.001435368984104</v>
       </c>
       <c r="S7">
-        <v>0.9997275877985409</v>
+        <v>1.001435368984104</v>
       </c>
       <c r="T7">
-        <v>1.000097835733311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9982735686239979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9992575784201656</v>
+        <v>0.9991048917051145</v>
       </c>
       <c r="D8">
-        <v>0.9972718477377995</v>
+        <v>0.9971791423995018</v>
       </c>
       <c r="E8">
-        <v>1.001432109853603</v>
+        <v>1.001733566359245</v>
       </c>
       <c r="F8">
-        <v>0.9992575784201656</v>
+        <v>0.9991048917051145</v>
       </c>
       <c r="G8">
-        <v>1.004642395640929</v>
+        <v>1.000426202595526</v>
       </c>
       <c r="H8">
-        <v>0.997976982785321</v>
+        <v>0.9971791423995018</v>
       </c>
       <c r="I8">
-        <v>1.00079193100475</v>
+        <v>0.999030569823539</v>
       </c>
       <c r="J8">
-        <v>0.9972718477377995</v>
+        <v>1.004232451384958</v>
       </c>
       <c r="K8">
-        <v>0.9992575784201656</v>
+        <v>0.9971791423995018</v>
       </c>
       <c r="L8">
-        <v>1.001432109853603</v>
+        <v>1.001733566359245</v>
       </c>
       <c r="M8">
-        <v>0.9993519787957011</v>
+        <v>1.00041922903218</v>
       </c>
       <c r="N8">
-        <v>0.9993519787957011</v>
+        <v>1.00041922903218</v>
       </c>
       <c r="O8">
-        <v>0.998893646792241</v>
+        <v>0.9999563426292997</v>
       </c>
       <c r="P8">
-        <v>0.9993205120038559</v>
+        <v>0.9993392001546205</v>
       </c>
       <c r="Q8">
-        <v>0.9993205120038559</v>
+        <v>0.9993392001546205</v>
       </c>
       <c r="R8">
-        <v>0.9993047786079333</v>
+        <v>0.9987991857158409</v>
       </c>
       <c r="S8">
-        <v>0.9993047786079333</v>
+        <v>0.9987991857158409</v>
       </c>
       <c r="T8">
-        <v>1.000228807573761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000284470711314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9989619313227168</v>
+        <v>0.9485864204647523</v>
       </c>
       <c r="D9">
-        <v>0.9962306473132339</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="E9">
-        <v>1.001997837100616</v>
+        <v>1.00580970841176</v>
       </c>
       <c r="F9">
-        <v>0.9989619313227168</v>
+        <v>0.9485864204647523</v>
       </c>
       <c r="G9">
-        <v>1.006083322336773</v>
+        <v>1.012306877880765</v>
       </c>
       <c r="H9">
-        <v>0.9972716334696696</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="I9">
-        <v>1.001100775647939</v>
+        <v>0.9741613408913321</v>
       </c>
       <c r="J9">
-        <v>0.9962306473132339</v>
+        <v>1.012222499601897</v>
       </c>
       <c r="K9">
-        <v>0.9989619313227168</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="L9">
-        <v>1.001997837100616</v>
+        <v>1.00580970841176</v>
       </c>
       <c r="M9">
-        <v>0.9991142422069249</v>
+        <v>0.9771980644382561</v>
       </c>
       <c r="N9">
-        <v>0.9991142422069249</v>
+        <v>0.9771980644382561</v>
       </c>
       <c r="O9">
-        <v>0.9985000392945066</v>
+        <v>0.976185823255948</v>
       </c>
       <c r="P9">
-        <v>0.9990634719121889</v>
+        <v>0.994243748815744</v>
       </c>
       <c r="Q9">
-        <v>0.9990634719121889</v>
+        <v>0.994243748815744</v>
       </c>
       <c r="R9">
-        <v>0.9990380867648209</v>
+        <v>1.002766591004488</v>
       </c>
       <c r="S9">
-        <v>0.9990380867648209</v>
+        <v>1.002766591004488</v>
       </c>
       <c r="T9">
-        <v>1.000274357865158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9969036608035377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9978238189405574</v>
+        <v>0.4554899284187248</v>
       </c>
       <c r="D10">
-        <v>0.9917730475837904</v>
+        <v>0.8498479095628799</v>
       </c>
       <c r="E10">
-        <v>1.004297181178417</v>
+        <v>1.292620729982159</v>
       </c>
       <c r="F10">
-        <v>0.9978238189405574</v>
+        <v>0.4554899284187248</v>
       </c>
       <c r="G10">
-        <v>1.013422715097621</v>
+        <v>1.162062401436162</v>
       </c>
       <c r="H10">
-        <v>0.9940210552785382</v>
+        <v>0.8498479095628799</v>
       </c>
       <c r="I10">
-        <v>1.002385400072418</v>
+        <v>0.5666649698920895</v>
       </c>
       <c r="J10">
-        <v>0.9917730475837904</v>
+        <v>2.024652873473638</v>
       </c>
       <c r="K10">
-        <v>0.9978238189405574</v>
+        <v>0.8498479095628799</v>
       </c>
       <c r="L10">
-        <v>1.004297181178417</v>
+        <v>1.292620729982159</v>
       </c>
       <c r="M10">
-        <v>0.9980351143811039</v>
+        <v>0.874055329200442</v>
       </c>
       <c r="N10">
-        <v>0.9980351143811039</v>
+        <v>0.874055329200442</v>
       </c>
       <c r="O10">
-        <v>0.9966970946802487</v>
+        <v>0.7715918760976579</v>
       </c>
       <c r="P10">
-        <v>0.9979646825675884</v>
+        <v>0.8659861893212547</v>
       </c>
       <c r="Q10">
-        <v>0.9979646825675884</v>
+        <v>0.8659861893212547</v>
       </c>
       <c r="R10">
-        <v>0.9979294666608307</v>
+        <v>0.861951619381661</v>
       </c>
       <c r="S10">
-        <v>0.9979294666608307</v>
+        <v>0.861951619381661</v>
       </c>
       <c r="T10">
-        <v>1.000620536358557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.058556468794275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9964841701949199</v>
+        <v>0.8554597452668394</v>
       </c>
       <c r="D11">
-        <v>0.9863662072562126</v>
+        <v>1.093206627221344</v>
       </c>
       <c r="E11">
-        <v>1.00703720932374</v>
+        <v>1.010641878416648</v>
       </c>
       <c r="F11">
-        <v>0.9964841701949199</v>
+        <v>0.8554597452668394</v>
       </c>
       <c r="G11">
-        <v>1.021267971612336</v>
+        <v>1.034540920020848</v>
       </c>
       <c r="H11">
-        <v>0.9903553289382008</v>
+        <v>1.093206627221344</v>
       </c>
       <c r="I11">
-        <v>1.00392028881124</v>
+        <v>0.9220509398420997</v>
       </c>
       <c r="J11">
-        <v>0.9863662072562126</v>
+        <v>1.043975898623983</v>
       </c>
       <c r="K11">
-        <v>0.9964841701949199</v>
+        <v>1.093206627221344</v>
       </c>
       <c r="L11">
-        <v>1.00703720932374</v>
+        <v>1.010641878416648</v>
       </c>
       <c r="M11">
-        <v>0.9967017082899763</v>
+        <v>0.9330508118417438</v>
       </c>
       <c r="N11">
-        <v>0.9967017082899763</v>
+        <v>0.9330508118417438</v>
       </c>
       <c r="O11">
-        <v>0.9945862485060512</v>
+        <v>0.9293841878418624</v>
       </c>
       <c r="P11">
-        <v>0.9966291955916242</v>
+        <v>0.9864360836349441</v>
       </c>
       <c r="Q11">
-        <v>0.9966291955916242</v>
+        <v>0.9864360836349441</v>
       </c>
       <c r="R11">
-        <v>0.9965929392424482</v>
+        <v>1.013128719531544</v>
       </c>
       <c r="S11">
-        <v>0.9965929392424482</v>
+        <v>1.013128719531544</v>
       </c>
       <c r="T11">
-        <v>1.000905196022775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9933126682319604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.163465786148756</v>
+        <v>0.8390197578463174</v>
       </c>
       <c r="D12">
-        <v>1.057020441297235</v>
+        <v>0.9521995865999989</v>
       </c>
       <c r="E12">
-        <v>0.8901132375047996</v>
+        <v>1.090838161484208</v>
       </c>
       <c r="F12">
-        <v>1.163465786148756</v>
+        <v>0.8390197578463174</v>
       </c>
       <c r="G12">
-        <v>0.6813456698330567</v>
+        <v>1.050093696852631</v>
       </c>
       <c r="H12">
-        <v>1.083172435396266</v>
+        <v>0.9521995865999989</v>
       </c>
       <c r="I12">
-        <v>0.9698820977595264</v>
+        <v>0.8673510855789477</v>
       </c>
       <c r="J12">
-        <v>1.057020441297235</v>
+        <v>1.309667964505266</v>
       </c>
       <c r="K12">
-        <v>1.163465786148756</v>
+        <v>0.9521995865999989</v>
       </c>
       <c r="L12">
-        <v>0.8901132375047996</v>
+        <v>1.090838161484208</v>
       </c>
       <c r="M12">
-        <v>0.9735668394010175</v>
+        <v>0.9649289596652628</v>
       </c>
       <c r="N12">
-        <v>0.9735668394010175</v>
+        <v>0.9649289596652628</v>
       </c>
       <c r="O12">
-        <v>1.0101020380661</v>
+        <v>0.9324030016364911</v>
       </c>
       <c r="P12">
-        <v>1.036866488316931</v>
+        <v>0.9606858353101749</v>
       </c>
       <c r="Q12">
-        <v>1.03686648831693</v>
+        <v>0.9606858353101749</v>
       </c>
       <c r="R12">
-        <v>1.068516312774887</v>
+        <v>0.9585642731326309</v>
       </c>
       <c r="S12">
-        <v>1.068516312774887</v>
+        <v>0.9585642731326309</v>
       </c>
       <c r="T12">
-        <v>0.9741666113232732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.018195042144561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8959120011689052</v>
+        <v>1.155434813579686</v>
       </c>
       <c r="D13">
-        <v>1.079184351565757</v>
+        <v>0.9775503781551235</v>
       </c>
       <c r="E13">
-        <v>1.025296711242839</v>
+        <v>0.953931027593737</v>
       </c>
       <c r="F13">
-        <v>0.8959120011689052</v>
+        <v>1.155434813579686</v>
       </c>
       <c r="G13">
-        <v>1.05327314256508</v>
+        <v>0.9608085572263074</v>
       </c>
       <c r="H13">
-        <v>1.025626328957357</v>
+        <v>0.9775503781551235</v>
       </c>
       <c r="I13">
-        <v>0.9875322166970538</v>
+        <v>1.087705349400277</v>
       </c>
       <c r="J13">
-        <v>1.079184351565757</v>
+        <v>0.8728947810453992</v>
       </c>
       <c r="K13">
-        <v>0.8959120011689052</v>
+        <v>0.9775503781551235</v>
       </c>
       <c r="L13">
-        <v>1.025296711242839</v>
+        <v>0.953931027593737</v>
       </c>
       <c r="M13">
-        <v>1.052240531404298</v>
+        <v>1.054682920586711</v>
       </c>
       <c r="N13">
-        <v>1.052240531404298</v>
+        <v>1.054682920586711</v>
       </c>
       <c r="O13">
-        <v>1.043369130588651</v>
+        <v>1.0656903968579</v>
       </c>
       <c r="P13">
-        <v>1.000131021325834</v>
+        <v>1.028972073109516</v>
       </c>
       <c r="Q13">
-        <v>1.000131021325834</v>
+        <v>1.028972073109515</v>
       </c>
       <c r="R13">
-        <v>0.9740762662866016</v>
+        <v>1.016116649370917</v>
       </c>
       <c r="S13">
-        <v>0.9740762662866016</v>
+        <v>1.016116649370917</v>
       </c>
       <c r="T13">
-        <v>1.011137458699499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001387484500088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9451645460200326</v>
+        <v>0.06763033000000004</v>
       </c>
       <c r="D14">
-        <v>1.38738221163911</v>
+        <v>0.7263036200000009</v>
       </c>
       <c r="E14">
-        <v>0.866041299106437</v>
+        <v>1.508032700000001</v>
       </c>
       <c r="F14">
-        <v>0.9451645460200326</v>
+        <v>0.06763033000000004</v>
       </c>
       <c r="G14">
-        <v>0.5726370361259866</v>
+        <v>1.277379600000002</v>
       </c>
       <c r="H14">
-        <v>1.267629819945443</v>
+        <v>0.7263036200000009</v>
       </c>
       <c r="I14">
-        <v>0.8888523824839044</v>
+        <v>0.25333752</v>
       </c>
       <c r="J14">
-        <v>1.38738221163911</v>
+        <v>2.791430600000004</v>
       </c>
       <c r="K14">
-        <v>0.9451645460200326</v>
+        <v>0.7263036200000009</v>
       </c>
       <c r="L14">
-        <v>0.866041299106437</v>
+        <v>1.508032700000001</v>
       </c>
       <c r="M14">
-        <v>1.126711755372774</v>
+        <v>0.7878315150000005</v>
       </c>
       <c r="N14">
-        <v>1.126711755372774</v>
+        <v>0.7878315150000005</v>
       </c>
       <c r="O14">
-        <v>1.173684443563664</v>
+        <v>0.6096668500000003</v>
       </c>
       <c r="P14">
-        <v>1.06619601892186</v>
+        <v>0.7673222166666673</v>
       </c>
       <c r="Q14">
-        <v>1.06619601892186</v>
+        <v>0.7673222166666673</v>
       </c>
       <c r="R14">
-        <v>1.035938150696403</v>
+        <v>0.7570675675000007</v>
       </c>
       <c r="S14">
-        <v>1.035938150696403</v>
+        <v>0.7570675675000007</v>
       </c>
       <c r="T14">
-        <v>0.9879512158868192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.104019061666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9565139702977614</v>
+        <v>0.8653893</v>
       </c>
       <c r="D15">
-        <v>1.204344669416117</v>
+        <v>0.78076454</v>
       </c>
       <c r="E15">
-        <v>0.965076745243274</v>
+        <v>1.1346418</v>
       </c>
       <c r="F15">
-        <v>0.9565139702977614</v>
+        <v>0.8653893</v>
       </c>
       <c r="G15">
-        <v>0.963550663035824</v>
+        <v>1.0278427</v>
       </c>
       <c r="H15">
-        <v>1.063251345171247</v>
+        <v>0.78076454</v>
       </c>
       <c r="I15">
-        <v>0.962654655792831</v>
+        <v>1.0174115</v>
       </c>
       <c r="J15">
-        <v>1.204344669416117</v>
+        <v>0.98552071</v>
       </c>
       <c r="K15">
-        <v>0.9565139702977614</v>
+        <v>0.78076454</v>
       </c>
       <c r="L15">
-        <v>0.965076745243274</v>
+        <v>1.1346418</v>
       </c>
       <c r="M15">
-        <v>1.084710707329696</v>
+        <v>1.00001555</v>
       </c>
       <c r="N15">
-        <v>1.084710707329696</v>
+        <v>1.00001555</v>
       </c>
       <c r="O15">
-        <v>1.077557586610213</v>
+        <v>1.0058142</v>
       </c>
       <c r="P15">
-        <v>1.041978461652384</v>
+        <v>0.92693188</v>
       </c>
       <c r="Q15">
-        <v>1.041978461652384</v>
+        <v>0.92693188</v>
       </c>
       <c r="R15">
-        <v>1.020612338813728</v>
+        <v>0.890390045</v>
       </c>
       <c r="S15">
-        <v>1.020612338813728</v>
+        <v>0.890390045</v>
       </c>
       <c r="T15">
-        <v>1.019232008159509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9685950916666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001490486272367</v>
+        <v>0.21885897</v>
       </c>
       <c r="D16">
-        <v>0.9999062626873529</v>
+        <v>1.9813918</v>
       </c>
       <c r="E16">
-        <v>0.9993484200269059</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="F16">
-        <v>1.001490486272367</v>
+        <v>0.21885897</v>
       </c>
       <c r="G16">
-        <v>0.9992709351054423</v>
+        <v>1.1585466</v>
       </c>
       <c r="H16">
-        <v>0.9998933113658568</v>
+        <v>1.9813918</v>
       </c>
       <c r="I16">
-        <v>0.9999594330535264</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J16">
-        <v>0.9999062626873529</v>
+        <v>0.66920919</v>
       </c>
       <c r="K16">
-        <v>1.001490486272367</v>
+        <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>0.9993484200269059</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M16">
-        <v>0.9996273413571295</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N16">
-        <v>0.9996273413571295</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O16">
-        <v>0.9997159980267053</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P16">
-        <v>1.000248389662209</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q16">
-        <v>1.000248389662209</v>
+        <v>1.00974314</v>
       </c>
       <c r="R16">
-        <v>1.000558913814748</v>
+        <v>1.252655305</v>
       </c>
       <c r="S16">
-        <v>1.000558913814748</v>
+        <v>1.252655305</v>
       </c>
       <c r="T16">
-        <v>0.9999781414185754</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9971791423995018</v>
+        <v>1.5655237</v>
       </c>
       <c r="D17">
-        <v>0.9991048917051155</v>
+        <v>0.66063248</v>
       </c>
       <c r="E17">
-        <v>1.001733566359245</v>
+        <v>0.91741726</v>
       </c>
       <c r="F17">
-        <v>0.9971791423995018</v>
+        <v>1.5655237</v>
       </c>
       <c r="G17">
-        <v>1.004232451384958</v>
+        <v>0.83969363</v>
       </c>
       <c r="H17">
-        <v>0.999030569823539</v>
+        <v>0.66063248</v>
       </c>
       <c r="I17">
-        <v>1.000426202595526</v>
+        <v>1.4132376</v>
       </c>
       <c r="J17">
-        <v>0.9991048917051155</v>
+        <v>0.51665341</v>
       </c>
       <c r="K17">
-        <v>0.9971791423995018</v>
+        <v>0.66063248</v>
       </c>
       <c r="L17">
-        <v>1.001733566359245</v>
+        <v>0.91741726</v>
       </c>
       <c r="M17">
-        <v>1.000419229032181</v>
+        <v>1.24147048</v>
       </c>
       <c r="N17">
-        <v>1.000419229032181</v>
+        <v>1.24147048</v>
       </c>
       <c r="O17">
-        <v>0.9999563426293</v>
+        <v>1.298726186666667</v>
       </c>
       <c r="P17">
-        <v>0.9993392001546209</v>
+        <v>1.047857813333333</v>
       </c>
       <c r="Q17">
-        <v>0.9993392001546209</v>
+        <v>1.047857813333333</v>
       </c>
       <c r="R17">
-        <v>0.9987991857158411</v>
+        <v>0.9510514799999999</v>
       </c>
       <c r="S17">
-        <v>0.9987991857158411</v>
+        <v>0.9510514799999999</v>
       </c>
       <c r="T17">
-        <v>1.000284470711314</v>
+        <v>0.9855263466666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010237996183505</v>
+        <v>0.3755620860273973</v>
       </c>
       <c r="D18">
-        <v>0.9906304065742629</v>
+        <v>1.357486290136986</v>
       </c>
       <c r="E18">
-        <v>0.9986085158584057</v>
+        <v>1.062217725205479</v>
       </c>
       <c r="F18">
-        <v>1.010237996183505</v>
+        <v>0.3755620860273973</v>
       </c>
       <c r="G18">
-        <v>0.9979434368610937</v>
+        <v>1.1476417</v>
       </c>
       <c r="H18">
-        <v>0.9956602989773534</v>
+        <v>1.357486290136986</v>
       </c>
       <c r="I18">
-        <v>1.001890403751359</v>
+        <v>0.6944910523287672</v>
       </c>
       <c r="J18">
-        <v>0.9906304065742629</v>
+        <v>1.113727019041096</v>
       </c>
       <c r="K18">
-        <v>1.010237996183505</v>
+        <v>1.357486290136986</v>
       </c>
       <c r="L18">
-        <v>0.9986085158584057</v>
+        <v>1.062217725205479</v>
       </c>
       <c r="M18">
-        <v>0.9946194612163344</v>
+        <v>0.7188899056164382</v>
       </c>
       <c r="N18">
-        <v>0.9946194612163344</v>
+        <v>0.7188899056164382</v>
       </c>
       <c r="O18">
-        <v>0.9949664071366741</v>
+        <v>0.7107569545205479</v>
       </c>
       <c r="P18">
-        <v>0.9998256395387246</v>
+        <v>0.9317553671232875</v>
       </c>
       <c r="Q18">
-        <v>0.9998256395387245</v>
+        <v>0.9317553671232875</v>
       </c>
       <c r="R18">
-        <v>1.00242872869992</v>
+        <v>1.038188097876712</v>
       </c>
       <c r="S18">
-        <v>1.00242872869992</v>
+        <v>1.038188097876712</v>
       </c>
       <c r="T18">
-        <v>0.9991618430343298</v>
+        <v>0.9585209787899545</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.037583542761666</v>
+        <v>0.8809067012105262</v>
       </c>
       <c r="D19">
-        <v>0.975033178802916</v>
+        <v>1.010713346842105</v>
       </c>
       <c r="E19">
-        <v>0.9913764938602087</v>
+        <v>1.019101338421053</v>
       </c>
       <c r="F19">
-        <v>1.037583542761666</v>
+        <v>0.8809067012105262</v>
       </c>
       <c r="G19">
-        <v>0.9840007695811178</v>
+        <v>1.015639561578948</v>
       </c>
       <c r="H19">
-        <v>0.9891707789588841</v>
+        <v>1.010713346842105</v>
       </c>
       <c r="I19">
-        <v>1.004687387076846</v>
+        <v>0.9825337589473684</v>
       </c>
       <c r="J19">
-        <v>0.975033178802916</v>
+        <v>0.9962871910526316</v>
       </c>
       <c r="K19">
-        <v>1.037583542761666</v>
+        <v>1.010713346842105</v>
       </c>
       <c r="L19">
-        <v>0.9913764938602087</v>
+        <v>1.019101338421053</v>
       </c>
       <c r="M19">
-        <v>0.9832048363315623</v>
+        <v>0.9500040198157893</v>
       </c>
       <c r="N19">
-        <v>0.9832048363315623</v>
+        <v>0.9500040198157893</v>
       </c>
       <c r="O19">
-        <v>0.9851934838740029</v>
+        <v>0.9608472661929822</v>
       </c>
       <c r="P19">
-        <v>1.001331071808264</v>
+        <v>0.9702404621578946</v>
       </c>
       <c r="Q19">
-        <v>1.001331071808263</v>
+        <v>0.9702404621578946</v>
       </c>
       <c r="R19">
-        <v>1.010394189546614</v>
+        <v>0.9803586833289473</v>
       </c>
       <c r="S19">
-        <v>1.010394189546614</v>
+        <v>0.9803586833289473</v>
       </c>
       <c r="T19">
-        <v>0.9969753585069396</v>
+        <v>0.9841969830087717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9585690914736843</v>
+      </c>
+      <c r="D20">
+        <v>0.8604701463157894</v>
+      </c>
+      <c r="E20">
+        <v>1.110923122631579</v>
+      </c>
+      <c r="F20">
+        <v>0.9585690914736843</v>
+      </c>
+      <c r="G20">
+        <v>1.036366642631579</v>
+      </c>
+      <c r="H20">
+        <v>0.8604701463157894</v>
+      </c>
+      <c r="I20">
+        <v>0.87243632</v>
+      </c>
+      <c r="J20">
+        <v>1.426944999473684</v>
+      </c>
+      <c r="K20">
+        <v>0.8604701463157894</v>
+      </c>
+      <c r="L20">
+        <v>1.110923122631579</v>
+      </c>
+      <c r="M20">
+        <v>1.034746107052632</v>
+      </c>
+      <c r="N20">
+        <v>1.034746107052632</v>
+      </c>
+      <c r="O20">
+        <v>0.9806428447017547</v>
+      </c>
+      <c r="P20">
+        <v>0.976654120140351</v>
+      </c>
+      <c r="Q20">
+        <v>0.9766541201403509</v>
+      </c>
+      <c r="R20">
+        <v>0.9476081266842106</v>
+      </c>
+      <c r="S20">
+        <v>0.9476081266842106</v>
+      </c>
+      <c r="T20">
+        <v>1.044285053754386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.38738221163911</v>
+      </c>
+      <c r="D21">
+        <v>0.9451645460200326</v>
+      </c>
+      <c r="E21">
+        <v>0.8660412991064369</v>
+      </c>
+      <c r="F21">
+        <v>1.38738221163911</v>
+      </c>
+      <c r="G21">
+        <v>0.8888523824839044</v>
+      </c>
+      <c r="H21">
+        <v>0.9451645460200326</v>
+      </c>
+      <c r="I21">
+        <v>1.267629819945443</v>
+      </c>
+      <c r="J21">
+        <v>0.5726370361259864</v>
+      </c>
+      <c r="K21">
+        <v>0.9451645460200326</v>
+      </c>
+      <c r="L21">
+        <v>0.8660412991064369</v>
+      </c>
+      <c r="M21">
+        <v>1.126711755372773</v>
+      </c>
+      <c r="N21">
+        <v>1.126711755372773</v>
+      </c>
+      <c r="O21">
+        <v>1.173684443563664</v>
+      </c>
+      <c r="P21">
+        <v>1.06619601892186</v>
+      </c>
+      <c r="Q21">
+        <v>1.06619601892186</v>
+      </c>
+      <c r="R21">
+        <v>1.035938150696403</v>
+      </c>
+      <c r="S21">
+        <v>1.035938150696403</v>
+      </c>
+      <c r="T21">
+        <v>0.9879512158868189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.204344669416117</v>
+      </c>
+      <c r="D22">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="E22">
+        <v>0.965076745243274</v>
+      </c>
+      <c r="F22">
+        <v>1.204344669416117</v>
+      </c>
+      <c r="G22">
+        <v>0.962654655792831</v>
+      </c>
+      <c r="H22">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="I22">
+        <v>1.063251345171247</v>
+      </c>
+      <c r="J22">
+        <v>0.963550663035824</v>
+      </c>
+      <c r="K22">
+        <v>0.9565139702977612</v>
+      </c>
+      <c r="L22">
+        <v>0.965076745243274</v>
+      </c>
+      <c r="M22">
+        <v>1.084710707329696</v>
+      </c>
+      <c r="N22">
+        <v>1.084710707329696</v>
+      </c>
+      <c r="O22">
+        <v>1.077557586610213</v>
+      </c>
+      <c r="P22">
+        <v>1.041978461652384</v>
+      </c>
+      <c r="Q22">
+        <v>1.041978461652384</v>
+      </c>
+      <c r="R22">
+        <v>1.020612338813728</v>
+      </c>
+      <c r="S22">
+        <v>1.020612338813728</v>
+      </c>
+      <c r="T22">
+        <v>1.019232008159509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.057020441297235</v>
+      </c>
+      <c r="D23">
+        <v>1.163465786148756</v>
+      </c>
+      <c r="E23">
+        <v>0.8901132375047996</v>
+      </c>
+      <c r="F23">
+        <v>1.057020441297235</v>
+      </c>
+      <c r="G23">
+        <v>0.9698820977595264</v>
+      </c>
+      <c r="H23">
+        <v>1.163465786148756</v>
+      </c>
+      <c r="I23">
+        <v>1.083172435396266</v>
+      </c>
+      <c r="J23">
+        <v>0.6813456698330564</v>
+      </c>
+      <c r="K23">
+        <v>1.163465786148756</v>
+      </c>
+      <c r="L23">
+        <v>0.8901132375047996</v>
+      </c>
+      <c r="M23">
+        <v>0.9735668394010175</v>
+      </c>
+      <c r="N23">
+        <v>0.9735668394010175</v>
+      </c>
+      <c r="O23">
+        <v>1.0101020380661</v>
+      </c>
+      <c r="P23">
+        <v>1.036866488316931</v>
+      </c>
+      <c r="Q23">
+        <v>1.03686648831693</v>
+      </c>
+      <c r="R23">
+        <v>1.068516312774887</v>
+      </c>
+      <c r="S23">
+        <v>1.068516312774887</v>
+      </c>
+      <c r="T23">
+        <v>0.9741666113232732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.079184351565757</v>
+      </c>
+      <c r="D24">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="E24">
+        <v>1.025296711242839</v>
+      </c>
+      <c r="F24">
+        <v>1.079184351565757</v>
+      </c>
+      <c r="G24">
+        <v>0.9875322166970538</v>
+      </c>
+      <c r="H24">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="I24">
+        <v>1.025626328957357</v>
+      </c>
+      <c r="J24">
+        <v>1.05327314256508</v>
+      </c>
+      <c r="K24">
+        <v>0.8959120011689051</v>
+      </c>
+      <c r="L24">
+        <v>1.025296711242839</v>
+      </c>
+      <c r="M24">
+        <v>1.052240531404298</v>
+      </c>
+      <c r="N24">
+        <v>1.052240531404298</v>
+      </c>
+      <c r="O24">
+        <v>1.043369130588651</v>
+      </c>
+      <c r="P24">
+        <v>1.000131021325834</v>
+      </c>
+      <c r="Q24">
+        <v>1.000131021325834</v>
+      </c>
+      <c r="R24">
+        <v>0.9740762662866016</v>
+      </c>
+      <c r="S24">
+        <v>0.9740762662866016</v>
+      </c>
+      <c r="T24">
+        <v>1.011137458699499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.835461578806281</v>
+      </c>
+      <c r="D25">
+        <v>1.169808234935869</v>
+      </c>
+      <c r="E25">
+        <v>0.9690034834268131</v>
+      </c>
+      <c r="F25">
+        <v>0.835461578806281</v>
+      </c>
+      <c r="G25">
+        <v>1.027957184354692</v>
+      </c>
+      <c r="H25">
+        <v>1.169808234935869</v>
+      </c>
+      <c r="I25">
+        <v>0.95887469310749</v>
+      </c>
+      <c r="J25">
+        <v>0.8694673650092828</v>
+      </c>
+      <c r="K25">
+        <v>1.169808234935869</v>
+      </c>
+      <c r="L25">
+        <v>0.9690034834268131</v>
+      </c>
+      <c r="M25">
+        <v>0.9022325311165471</v>
+      </c>
+      <c r="N25">
+        <v>0.9022325311165471</v>
+      </c>
+      <c r="O25">
+        <v>0.9211132517801947</v>
+      </c>
+      <c r="P25">
+        <v>0.9914244323896545</v>
+      </c>
+      <c r="Q25">
+        <v>0.9914244323896545</v>
+      </c>
+      <c r="R25">
+        <v>1.036020383026208</v>
+      </c>
+      <c r="S25">
+        <v>1.036020383026208</v>
+      </c>
+      <c r="T25">
+        <v>0.9717620899400714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.025289859464515</v>
+      </c>
+      <c r="D26">
+        <v>0.941893276682628</v>
+      </c>
+      <c r="E26">
+        <v>1.021673136203001</v>
+      </c>
+      <c r="F26">
+        <v>1.025289859464515</v>
+      </c>
+      <c r="G26">
+        <v>0.9982984920187713</v>
+      </c>
+      <c r="H26">
+        <v>0.941893276682628</v>
+      </c>
+      <c r="I26">
+        <v>0.9926489798119881</v>
+      </c>
+      <c r="J26">
+        <v>1.091062855103464</v>
+      </c>
+      <c r="K26">
+        <v>0.941893276682628</v>
+      </c>
+      <c r="L26">
+        <v>1.021673136203001</v>
+      </c>
+      <c r="M26">
+        <v>1.023481497833758</v>
+      </c>
+      <c r="N26">
+        <v>1.023481497833758</v>
+      </c>
+      <c r="O26">
+        <v>1.013203991826501</v>
+      </c>
+      <c r="P26">
+        <v>0.9962854241167145</v>
+      </c>
+      <c r="Q26">
+        <v>0.9962854241167145</v>
+      </c>
+      <c r="R26">
+        <v>0.9826873872581929</v>
+      </c>
+      <c r="S26">
+        <v>0.9826873872581929</v>
+      </c>
+      <c r="T26">
+        <v>1.011811099880728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8787562613612248</v>
+      </c>
+      <c r="D27">
+        <v>1.026242272850547</v>
+      </c>
+      <c r="E27">
+        <v>1.018616446511143</v>
+      </c>
+      <c r="F27">
+        <v>0.8787562613612248</v>
+      </c>
+      <c r="G27">
+        <v>1.02042167604189</v>
+      </c>
+      <c r="H27">
+        <v>1.026242272850547</v>
+      </c>
+      <c r="I27">
+        <v>0.9596480076953364</v>
+      </c>
+      <c r="J27">
+        <v>1.045595655612767</v>
+      </c>
+      <c r="K27">
+        <v>1.026242272850547</v>
+      </c>
+      <c r="L27">
+        <v>1.018616446511143</v>
+      </c>
+      <c r="M27">
+        <v>0.9486863539361838</v>
+      </c>
+      <c r="N27">
+        <v>0.9486863539361838</v>
+      </c>
+      <c r="O27">
+        <v>0.952340238522568</v>
+      </c>
+      <c r="P27">
+        <v>0.9745383269076383</v>
+      </c>
+      <c r="Q27">
+        <v>0.9745383269076383</v>
+      </c>
+      <c r="R27">
+        <v>0.9874643133933656</v>
+      </c>
+      <c r="S27">
+        <v>0.9874643133933656</v>
+      </c>
+      <c r="T27">
+        <v>0.9915467200121514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007396197399548</v>
+      </c>
+      <c r="D28">
+        <v>1.088294821878498</v>
+      </c>
+      <c r="E28">
+        <v>0.9596456974612709</v>
+      </c>
+      <c r="F28">
+        <v>1.007396197399548</v>
+      </c>
+      <c r="G28">
+        <v>0.9960699642598007</v>
+      </c>
+      <c r="H28">
+        <v>1.088294821878498</v>
+      </c>
+      <c r="I28">
+        <v>1.005998216305687</v>
+      </c>
+      <c r="J28">
+        <v>0.9088061692988669</v>
+      </c>
+      <c r="K28">
+        <v>1.088294821878498</v>
+      </c>
+      <c r="L28">
+        <v>0.9596456974612709</v>
+      </c>
+      <c r="M28">
+        <v>0.9835209474304094</v>
+      </c>
+      <c r="N28">
+        <v>0.9835209474304094</v>
+      </c>
+      <c r="O28">
+        <v>0.9910133703888352</v>
+      </c>
+      <c r="P28">
+        <v>1.018445572246439</v>
+      </c>
+      <c r="Q28">
+        <v>1.018445572246439</v>
+      </c>
+      <c r="R28">
+        <v>1.035907884654454</v>
+      </c>
+      <c r="S28">
+        <v>1.035907884654454</v>
+      </c>
+      <c r="T28">
+        <v>0.9943685111006119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.124042838374256</v>
+      </c>
+      <c r="D29">
+        <v>1.006004373705</v>
+      </c>
+      <c r="E29">
+        <v>0.9284804424027467</v>
+      </c>
+      <c r="F29">
+        <v>1.124042838374256</v>
+      </c>
+      <c r="G29">
+        <v>0.9486198970526248</v>
+      </c>
+      <c r="H29">
+        <v>1.006004373705</v>
+      </c>
+      <c r="I29">
+        <v>1.156938873499019</v>
+      </c>
+      <c r="J29">
+        <v>0.6457530688350023</v>
+      </c>
+      <c r="K29">
+        <v>1.006004373705</v>
+      </c>
+      <c r="L29">
+        <v>0.9284804424027467</v>
+      </c>
+      <c r="M29">
+        <v>1.026261640388501</v>
+      </c>
+      <c r="N29">
+        <v>1.026261640388501</v>
+      </c>
+      <c r="O29">
+        <v>1.069820718092007</v>
+      </c>
+      <c r="P29">
+        <v>1.019509218160668</v>
+      </c>
+      <c r="Q29">
+        <v>1.019509218160668</v>
+      </c>
+      <c r="R29">
+        <v>1.01613300704675</v>
+      </c>
+      <c r="S29">
+        <v>1.01613300704675</v>
+      </c>
+      <c r="T29">
+        <v>0.9683065823114415</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8997102194046918</v>
+        <v>0.8428588394747105</v>
       </c>
       <c r="D4">
-        <v>1.088158335966738</v>
+        <v>0.9882311709339575</v>
       </c>
       <c r="E4">
-        <v>0.9937594355530149</v>
+        <v>1.067900496916294</v>
       </c>
       <c r="F4">
-        <v>0.8997102194046918</v>
+        <v>0.8428588394747105</v>
       </c>
       <c r="G4">
-        <v>1.021034795068141</v>
+        <v>1.044528775771911</v>
       </c>
       <c r="H4">
-        <v>1.088158335966738</v>
+        <v>0.9882311709339575</v>
       </c>
       <c r="I4">
-        <v>0.9560452919021034</v>
+        <v>0.8898013479624119</v>
       </c>
       <c r="J4">
-        <v>0.9852737853881289</v>
+        <v>1.217986155380889</v>
       </c>
       <c r="K4">
-        <v>1.088158335966738</v>
+        <v>0.9882311709339575</v>
       </c>
       <c r="L4">
-        <v>0.9937594355530149</v>
+        <v>1.067900496916294</v>
       </c>
       <c r="M4">
-        <v>0.9467348274788534</v>
+        <v>0.9553796681955025</v>
       </c>
       <c r="N4">
-        <v>0.9467348274788534</v>
+        <v>0.9553796681955025</v>
       </c>
       <c r="O4">
-        <v>0.9498383156199367</v>
+        <v>0.9335202281178057</v>
       </c>
       <c r="P4">
-        <v>0.9938759969748148</v>
+        <v>0.9663301691083208</v>
       </c>
       <c r="Q4">
-        <v>0.9938759969748148</v>
+        <v>0.9663301691083208</v>
       </c>
       <c r="R4">
-        <v>1.017446581722796</v>
+        <v>0.97180541956473</v>
       </c>
       <c r="S4">
-        <v>1.017446581722796</v>
+        <v>0.97180541956473</v>
       </c>
       <c r="T4">
-        <v>0.9906636438804695</v>
+        <v>1.008551131073362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8150388530072072</v>
+        <v>1.033259909409692</v>
       </c>
       <c r="D5">
-        <v>0.9882124126080675</v>
+        <v>0.8713408622068957</v>
       </c>
       <c r="E5">
-        <v>1.07902729448847</v>
+        <v>1.079039696827722</v>
       </c>
       <c r="F5">
-        <v>0.8150388530072072</v>
+        <v>1.033259909409692</v>
       </c>
       <c r="G5">
-        <v>1.052310032658501</v>
+        <v>1.017066624717979</v>
       </c>
       <c r="H5">
-        <v>0.9882124126080675</v>
+        <v>0.8713408622068957</v>
       </c>
       <c r="I5">
-        <v>0.8702057462536014</v>
+        <v>0.9185581925011027</v>
       </c>
       <c r="J5">
-        <v>1.255457197312681</v>
+        <v>1.330938882744303</v>
       </c>
       <c r="K5">
-        <v>0.9882124126080675</v>
+        <v>0.8713408622068957</v>
       </c>
       <c r="L5">
-        <v>1.07902729448847</v>
+        <v>1.079039696827722</v>
       </c>
       <c r="M5">
-        <v>0.9470330737478385</v>
+        <v>1.056149803118707</v>
       </c>
       <c r="N5">
-        <v>0.9470330737478385</v>
+        <v>1.056149803118707</v>
       </c>
       <c r="O5">
-        <v>0.9214239645830928</v>
+        <v>1.010285932912839</v>
       </c>
       <c r="P5">
-        <v>0.9607595200345815</v>
+        <v>0.9945468228147699</v>
       </c>
       <c r="Q5">
-        <v>0.9607595200345814</v>
+        <v>0.9945468228147698</v>
       </c>
       <c r="R5">
-        <v>0.9676227431779529</v>
+        <v>0.9637453326628013</v>
       </c>
       <c r="S5">
-        <v>0.9676227431779529</v>
+        <v>0.9637453326628013</v>
       </c>
       <c r="T5">
-        <v>1.010041922721421</v>
+        <v>1.041700694734616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4571487785429738</v>
+        <v>0.8997102194046918</v>
       </c>
       <c r="D6">
-        <v>0.8566779304032042</v>
+        <v>1.088158335966738</v>
       </c>
       <c r="E6">
-        <v>1.287425529766712</v>
+        <v>0.9937594355530149</v>
       </c>
       <c r="F6">
-        <v>0.4571487785429738</v>
+        <v>0.8997102194046918</v>
       </c>
       <c r="G6">
-        <v>1.16040157636256</v>
+        <v>1.021034795068141</v>
       </c>
       <c r="H6">
-        <v>0.8566779304032042</v>
+        <v>1.088158335966738</v>
       </c>
       <c r="I6">
-        <v>0.5730665886577895</v>
+        <v>0.9560452919021034</v>
       </c>
       <c r="J6">
-        <v>2.002209585742484</v>
+        <v>0.9852737853881289</v>
       </c>
       <c r="K6">
-        <v>0.8566779304032042</v>
+        <v>1.088158335966738</v>
       </c>
       <c r="L6">
-        <v>1.287425529766712</v>
+        <v>0.9937594355530149</v>
       </c>
       <c r="M6">
-        <v>0.8722871541548427</v>
+        <v>0.9467348274788534</v>
       </c>
       <c r="N6">
-        <v>0.8722871541548427</v>
+        <v>0.9467348274788534</v>
       </c>
       <c r="O6">
-        <v>0.7725469656558249</v>
+        <v>0.9498383156199367</v>
       </c>
       <c r="P6">
-        <v>0.8670840795709632</v>
+        <v>0.9938759969748148</v>
       </c>
       <c r="Q6">
-        <v>0.8670840795709632</v>
+        <v>0.9938759969748148</v>
       </c>
       <c r="R6">
-        <v>0.8644825422790234</v>
+        <v>1.017446581722796</v>
       </c>
       <c r="S6">
-        <v>0.8644825422790234</v>
+        <v>1.017446581722796</v>
       </c>
       <c r="T6">
-        <v>1.056154998245954</v>
+        <v>0.9906636438804695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9709388782726743</v>
+        <v>0.8150388530072072</v>
       </c>
       <c r="D7">
-        <v>1.015688478077417</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="E7">
-        <v>1.003425641508906</v>
+        <v>1.07902729448847</v>
       </c>
       <c r="F7">
-        <v>0.9709388782726743</v>
+        <v>0.8150388530072072</v>
       </c>
       <c r="G7">
-        <v>1.006968883798775</v>
+        <v>1.052310032658501</v>
       </c>
       <c r="H7">
-        <v>1.015688478077417</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="I7">
-        <v>0.9853757661191058</v>
+        <v>0.8702057462536014</v>
       </c>
       <c r="J7">
-        <v>1.007243763967109</v>
+        <v>1.255457197312681</v>
       </c>
       <c r="K7">
-        <v>1.015688478077417</v>
+        <v>0.9882124126080675</v>
       </c>
       <c r="L7">
-        <v>1.003425641508906</v>
+        <v>1.07902729448847</v>
       </c>
       <c r="M7">
-        <v>0.98718225989079</v>
+        <v>0.9470330737478385</v>
       </c>
       <c r="N7">
-        <v>0.98718225989079</v>
+        <v>0.9470330737478385</v>
       </c>
       <c r="O7">
-        <v>0.9865800953002286</v>
+        <v>0.9214239645830928</v>
       </c>
       <c r="P7">
-        <v>0.9966843326196657</v>
+        <v>0.9607595200345815</v>
       </c>
       <c r="Q7">
-        <v>0.9966843326196658</v>
+        <v>0.9607595200345814</v>
       </c>
       <c r="R7">
-        <v>1.001435368984104</v>
+        <v>0.9676227431779529</v>
       </c>
       <c r="S7">
-        <v>1.001435368984104</v>
+        <v>0.9676227431779529</v>
       </c>
       <c r="T7">
-        <v>0.9982735686239979</v>
+        <v>1.010041922721421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991048917051145</v>
+        <v>0.4571487785429738</v>
       </c>
       <c r="D8">
-        <v>0.9971791423995018</v>
+        <v>0.8566779304032042</v>
       </c>
       <c r="E8">
-        <v>1.001733566359245</v>
+        <v>1.287425529766712</v>
       </c>
       <c r="F8">
-        <v>0.9991048917051145</v>
+        <v>0.4571487785429738</v>
       </c>
       <c r="G8">
-        <v>1.000426202595526</v>
+        <v>1.16040157636256</v>
       </c>
       <c r="H8">
-        <v>0.9971791423995018</v>
+        <v>0.8566779304032042</v>
       </c>
       <c r="I8">
-        <v>0.999030569823539</v>
+        <v>0.5730665886577895</v>
       </c>
       <c r="J8">
-        <v>1.004232451384958</v>
+        <v>2.002209585742484</v>
       </c>
       <c r="K8">
-        <v>0.9971791423995018</v>
+        <v>0.8566779304032042</v>
       </c>
       <c r="L8">
-        <v>1.001733566359245</v>
+        <v>1.287425529766712</v>
       </c>
       <c r="M8">
-        <v>1.00041922903218</v>
+        <v>0.8722871541548427</v>
       </c>
       <c r="N8">
-        <v>1.00041922903218</v>
+        <v>0.8722871541548427</v>
       </c>
       <c r="O8">
-        <v>0.9999563426292997</v>
+        <v>0.7725469656558249</v>
       </c>
       <c r="P8">
-        <v>0.9993392001546205</v>
+        <v>0.8670840795709632</v>
       </c>
       <c r="Q8">
-        <v>0.9993392001546205</v>
+        <v>0.8670840795709632</v>
       </c>
       <c r="R8">
-        <v>0.9987991857158409</v>
+        <v>0.8644825422790234</v>
       </c>
       <c r="S8">
-        <v>0.9987991857158409</v>
+        <v>0.8644825422790234</v>
       </c>
       <c r="T8">
-        <v>1.000284470711314</v>
+        <v>1.056154998245954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9485864204647523</v>
+        <v>0.9709388782726743</v>
       </c>
       <c r="D9">
-        <v>1.028335117570719</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="E9">
-        <v>1.00580970841176</v>
+        <v>1.003425641508906</v>
       </c>
       <c r="F9">
-        <v>0.9485864204647523</v>
+        <v>0.9709388782726743</v>
       </c>
       <c r="G9">
-        <v>1.012306877880765</v>
+        <v>1.006968883798775</v>
       </c>
       <c r="H9">
-        <v>1.028335117570719</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="I9">
-        <v>0.9741613408913321</v>
+        <v>0.9853757661191058</v>
       </c>
       <c r="J9">
-        <v>1.012222499601897</v>
+        <v>1.007243763967109</v>
       </c>
       <c r="K9">
-        <v>1.028335117570719</v>
+        <v>1.015688478077417</v>
       </c>
       <c r="L9">
-        <v>1.00580970841176</v>
+        <v>1.003425641508906</v>
       </c>
       <c r="M9">
-        <v>0.9771980644382561</v>
+        <v>0.98718225989079</v>
       </c>
       <c r="N9">
-        <v>0.9771980644382561</v>
+        <v>0.98718225989079</v>
       </c>
       <c r="O9">
-        <v>0.976185823255948</v>
+        <v>0.9865800953002286</v>
       </c>
       <c r="P9">
-        <v>0.994243748815744</v>
+        <v>0.9966843326196657</v>
       </c>
       <c r="Q9">
-        <v>0.994243748815744</v>
+        <v>0.9966843326196658</v>
       </c>
       <c r="R9">
-        <v>1.002766591004488</v>
+        <v>1.001435368984104</v>
       </c>
       <c r="S9">
-        <v>1.002766591004488</v>
+        <v>1.001435368984104</v>
       </c>
       <c r="T9">
-        <v>0.9969036608035377</v>
+        <v>0.9982735686239979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4554899284187248</v>
+        <v>0.9991048917051145</v>
       </c>
       <c r="D10">
-        <v>0.8498479095628799</v>
+        <v>0.9971791423995018</v>
       </c>
       <c r="E10">
-        <v>1.292620729982159</v>
+        <v>1.001733566359245</v>
       </c>
       <c r="F10">
-        <v>0.4554899284187248</v>
+        <v>0.9991048917051145</v>
       </c>
       <c r="G10">
-        <v>1.162062401436162</v>
+        <v>1.000426202595526</v>
       </c>
       <c r="H10">
-        <v>0.8498479095628799</v>
+        <v>0.9971791423995018</v>
       </c>
       <c r="I10">
-        <v>0.5666649698920895</v>
+        <v>0.999030569823539</v>
       </c>
       <c r="J10">
-        <v>2.024652873473638</v>
+        <v>1.004232451384958</v>
       </c>
       <c r="K10">
-        <v>0.8498479095628799</v>
+        <v>0.9971791423995018</v>
       </c>
       <c r="L10">
-        <v>1.292620729982159</v>
+        <v>1.001733566359245</v>
       </c>
       <c r="M10">
-        <v>0.874055329200442</v>
+        <v>1.00041922903218</v>
       </c>
       <c r="N10">
-        <v>0.874055329200442</v>
+        <v>1.00041922903218</v>
       </c>
       <c r="O10">
-        <v>0.7715918760976579</v>
+        <v>0.9999563426292997</v>
       </c>
       <c r="P10">
-        <v>0.8659861893212547</v>
+        <v>0.9993392001546205</v>
       </c>
       <c r="Q10">
-        <v>0.8659861893212547</v>
+        <v>0.9993392001546205</v>
       </c>
       <c r="R10">
-        <v>0.861951619381661</v>
+        <v>0.9987991857158409</v>
       </c>
       <c r="S10">
-        <v>0.861951619381661</v>
+        <v>0.9987991857158409</v>
       </c>
       <c r="T10">
-        <v>1.058556468794275</v>
+        <v>1.000284470711314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8554597452668394</v>
+        <v>0.9485864204647523</v>
       </c>
       <c r="D11">
-        <v>1.093206627221344</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="E11">
-        <v>1.010641878416648</v>
+        <v>1.00580970841176</v>
       </c>
       <c r="F11">
-        <v>0.8554597452668394</v>
+        <v>0.9485864204647523</v>
       </c>
       <c r="G11">
-        <v>1.034540920020848</v>
+        <v>1.012306877880765</v>
       </c>
       <c r="H11">
-        <v>1.093206627221344</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="I11">
-        <v>0.9220509398420997</v>
+        <v>0.9741613408913321</v>
       </c>
       <c r="J11">
-        <v>1.043975898623983</v>
+        <v>1.012222499601897</v>
       </c>
       <c r="K11">
-        <v>1.093206627221344</v>
+        <v>1.028335117570719</v>
       </c>
       <c r="L11">
-        <v>1.010641878416648</v>
+        <v>1.00580970841176</v>
       </c>
       <c r="M11">
-        <v>0.9330508118417438</v>
+        <v>0.9771980644382561</v>
       </c>
       <c r="N11">
-        <v>0.9330508118417438</v>
+        <v>0.9771980644382561</v>
       </c>
       <c r="O11">
-        <v>0.9293841878418624</v>
+        <v>0.976185823255948</v>
       </c>
       <c r="P11">
-        <v>0.9864360836349441</v>
+        <v>0.994243748815744</v>
       </c>
       <c r="Q11">
-        <v>0.9864360836349441</v>
+        <v>0.994243748815744</v>
       </c>
       <c r="R11">
-        <v>1.013128719531544</v>
+        <v>1.002766591004488</v>
       </c>
       <c r="S11">
-        <v>1.013128719531544</v>
+        <v>1.002766591004488</v>
       </c>
       <c r="T11">
-        <v>0.9933126682319604</v>
+        <v>0.9969036608035377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8390197578463174</v>
+        <v>0.4554899284187248</v>
       </c>
       <c r="D12">
-        <v>0.9521995865999989</v>
+        <v>0.8498479095628799</v>
       </c>
       <c r="E12">
-        <v>1.090838161484208</v>
+        <v>1.292620729982159</v>
       </c>
       <c r="F12">
-        <v>0.8390197578463174</v>
+        <v>0.4554899284187248</v>
       </c>
       <c r="G12">
-        <v>1.050093696852631</v>
+        <v>1.162062401436162</v>
       </c>
       <c r="H12">
-        <v>0.9521995865999989</v>
+        <v>0.8498479095628799</v>
       </c>
       <c r="I12">
-        <v>0.8673510855789477</v>
+        <v>0.5666649698920895</v>
       </c>
       <c r="J12">
-        <v>1.309667964505266</v>
+        <v>2.024652873473638</v>
       </c>
       <c r="K12">
-        <v>0.9521995865999989</v>
+        <v>0.8498479095628799</v>
       </c>
       <c r="L12">
-        <v>1.090838161484208</v>
+        <v>1.292620729982159</v>
       </c>
       <c r="M12">
-        <v>0.9649289596652628</v>
+        <v>0.874055329200442</v>
       </c>
       <c r="N12">
-        <v>0.9649289596652628</v>
+        <v>0.874055329200442</v>
       </c>
       <c r="O12">
-        <v>0.9324030016364911</v>
+        <v>0.7715918760976579</v>
       </c>
       <c r="P12">
-        <v>0.9606858353101749</v>
+        <v>0.8659861893212547</v>
       </c>
       <c r="Q12">
-        <v>0.9606858353101749</v>
+        <v>0.8659861893212547</v>
       </c>
       <c r="R12">
-        <v>0.9585642731326309</v>
+        <v>0.861951619381661</v>
       </c>
       <c r="S12">
-        <v>0.9585642731326309</v>
+        <v>0.861951619381661</v>
       </c>
       <c r="T12">
-        <v>1.018195042144561</v>
+        <v>1.058556468794275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.155434813579686</v>
+        <v>0.8554597452668394</v>
       </c>
       <c r="D13">
-        <v>0.9775503781551235</v>
+        <v>1.093206627221344</v>
       </c>
       <c r="E13">
-        <v>0.953931027593737</v>
+        <v>1.010641878416648</v>
       </c>
       <c r="F13">
-        <v>1.155434813579686</v>
+        <v>0.8554597452668394</v>
       </c>
       <c r="G13">
-        <v>0.9608085572263074</v>
+        <v>1.034540920020848</v>
       </c>
       <c r="H13">
-        <v>0.9775503781551235</v>
+        <v>1.093206627221344</v>
       </c>
       <c r="I13">
-        <v>1.087705349400277</v>
+        <v>0.9220509398420997</v>
       </c>
       <c r="J13">
-        <v>0.8728947810453992</v>
+        <v>1.043975898623983</v>
       </c>
       <c r="K13">
-        <v>0.9775503781551235</v>
+        <v>1.093206627221344</v>
       </c>
       <c r="L13">
-        <v>0.953931027593737</v>
+        <v>1.010641878416648</v>
       </c>
       <c r="M13">
-        <v>1.054682920586711</v>
+        <v>0.9330508118417438</v>
       </c>
       <c r="N13">
-        <v>1.054682920586711</v>
+        <v>0.9330508118417438</v>
       </c>
       <c r="O13">
-        <v>1.0656903968579</v>
+        <v>0.9293841878418624</v>
       </c>
       <c r="P13">
-        <v>1.028972073109516</v>
+        <v>0.9864360836349441</v>
       </c>
       <c r="Q13">
-        <v>1.028972073109515</v>
+        <v>0.9864360836349441</v>
       </c>
       <c r="R13">
-        <v>1.016116649370917</v>
+        <v>1.013128719531544</v>
       </c>
       <c r="S13">
-        <v>1.016116649370917</v>
+        <v>1.013128719531544</v>
       </c>
       <c r="T13">
-        <v>1.001387484500088</v>
+        <v>0.9933126682319604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.06763033000000004</v>
+        <v>0.8390197578463174</v>
       </c>
       <c r="D14">
-        <v>0.7263036200000009</v>
+        <v>0.9521995865999989</v>
       </c>
       <c r="E14">
-        <v>1.508032700000001</v>
+        <v>1.090838161484208</v>
       </c>
       <c r="F14">
-        <v>0.06763033000000004</v>
+        <v>0.8390197578463174</v>
       </c>
       <c r="G14">
-        <v>1.277379600000002</v>
+        <v>1.050093696852631</v>
       </c>
       <c r="H14">
-        <v>0.7263036200000009</v>
+        <v>0.9521995865999989</v>
       </c>
       <c r="I14">
-        <v>0.25333752</v>
+        <v>0.8673510855789477</v>
       </c>
       <c r="J14">
-        <v>2.791430600000004</v>
+        <v>1.309667964505266</v>
       </c>
       <c r="K14">
-        <v>0.7263036200000009</v>
+        <v>0.9521995865999989</v>
       </c>
       <c r="L14">
-        <v>1.508032700000001</v>
+        <v>1.090838161484208</v>
       </c>
       <c r="M14">
-        <v>0.7878315150000005</v>
+        <v>0.9649289596652628</v>
       </c>
       <c r="N14">
-        <v>0.7878315150000005</v>
+        <v>0.9649289596652628</v>
       </c>
       <c r="O14">
-        <v>0.6096668500000003</v>
+        <v>0.9324030016364911</v>
       </c>
       <c r="P14">
-        <v>0.7673222166666673</v>
+        <v>0.9606858353101749</v>
       </c>
       <c r="Q14">
-        <v>0.7673222166666673</v>
+        <v>0.9606858353101749</v>
       </c>
       <c r="R14">
-        <v>0.7570675675000007</v>
+        <v>0.9585642731326309</v>
       </c>
       <c r="S14">
-        <v>0.7570675675000007</v>
+        <v>0.9585642731326309</v>
       </c>
       <c r="T14">
-        <v>1.104019061666668</v>
+        <v>1.018195042144561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8653893</v>
+        <v>1.155434813579686</v>
       </c>
       <c r="D15">
-        <v>0.78076454</v>
+        <v>0.9775503781551235</v>
       </c>
       <c r="E15">
-        <v>1.1346418</v>
+        <v>0.953931027593737</v>
       </c>
       <c r="F15">
-        <v>0.8653893</v>
+        <v>1.155434813579686</v>
       </c>
       <c r="G15">
-        <v>1.0278427</v>
+        <v>0.9608085572263074</v>
       </c>
       <c r="H15">
-        <v>0.78076454</v>
+        <v>0.9775503781551235</v>
       </c>
       <c r="I15">
-        <v>1.0174115</v>
+        <v>1.087705349400277</v>
       </c>
       <c r="J15">
-        <v>0.98552071</v>
+        <v>0.8728947810453992</v>
       </c>
       <c r="K15">
-        <v>0.78076454</v>
+        <v>0.9775503781551235</v>
       </c>
       <c r="L15">
-        <v>1.1346418</v>
+        <v>0.953931027593737</v>
       </c>
       <c r="M15">
-        <v>1.00001555</v>
+        <v>1.054682920586711</v>
       </c>
       <c r="N15">
-        <v>1.00001555</v>
+        <v>1.054682920586711</v>
       </c>
       <c r="O15">
-        <v>1.0058142</v>
+        <v>1.0656903968579</v>
       </c>
       <c r="P15">
-        <v>0.92693188</v>
+        <v>1.028972073109516</v>
       </c>
       <c r="Q15">
-        <v>0.92693188</v>
+        <v>1.028972073109515</v>
       </c>
       <c r="R15">
-        <v>0.890390045</v>
+        <v>1.016116649370917</v>
       </c>
       <c r="S15">
-        <v>0.890390045</v>
+        <v>1.016116649370917</v>
       </c>
       <c r="T15">
-        <v>0.9685950916666667</v>
+        <v>1.001387484500088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.21885897</v>
+        <v>0.06763033000000004</v>
       </c>
       <c r="D16">
-        <v>1.9813918</v>
+        <v>0.7263036200000009</v>
       </c>
       <c r="E16">
-        <v>0.8289786500000002</v>
+        <v>1.508032700000001</v>
       </c>
       <c r="F16">
-        <v>0.21885897</v>
+        <v>0.06763033000000004</v>
       </c>
       <c r="G16">
-        <v>1.1585466</v>
+        <v>1.277379600000002</v>
       </c>
       <c r="H16">
-        <v>1.9813918</v>
+        <v>0.7263036200000009</v>
       </c>
       <c r="I16">
-        <v>0.6454245799999999</v>
+        <v>0.25333752</v>
       </c>
       <c r="J16">
-        <v>0.66920919</v>
+        <v>2.791430600000004</v>
       </c>
       <c r="K16">
-        <v>1.9813918</v>
+        <v>0.7263036200000009</v>
       </c>
       <c r="L16">
-        <v>0.8289786500000002</v>
+        <v>1.508032700000001</v>
       </c>
       <c r="M16">
-        <v>0.5239188100000001</v>
+        <v>0.7878315150000005</v>
       </c>
       <c r="N16">
-        <v>0.5239188100000001</v>
+        <v>0.7878315150000005</v>
       </c>
       <c r="O16">
-        <v>0.5644207333333333</v>
+        <v>0.6096668500000003</v>
       </c>
       <c r="P16">
-        <v>1.00974314</v>
+        <v>0.7673222166666673</v>
       </c>
       <c r="Q16">
-        <v>1.00974314</v>
+        <v>0.7673222166666673</v>
       </c>
       <c r="R16">
-        <v>1.252655305</v>
+        <v>0.7570675675000007</v>
       </c>
       <c r="S16">
-        <v>1.252655305</v>
+        <v>0.7570675675000007</v>
       </c>
       <c r="T16">
-        <v>0.9170682983333333</v>
+        <v>1.104019061666668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.5655237</v>
+        <v>0.8653893</v>
       </c>
       <c r="D17">
-        <v>0.66063248</v>
+        <v>0.78076454</v>
       </c>
       <c r="E17">
-        <v>0.91741726</v>
+        <v>1.1346418</v>
       </c>
       <c r="F17">
-        <v>1.5655237</v>
+        <v>0.8653893</v>
       </c>
       <c r="G17">
-        <v>0.83969363</v>
+        <v>1.0278427</v>
       </c>
       <c r="H17">
-        <v>0.66063248</v>
+        <v>0.78076454</v>
       </c>
       <c r="I17">
-        <v>1.4132376</v>
+        <v>1.0174115</v>
       </c>
       <c r="J17">
-        <v>0.51665341</v>
+        <v>0.98552071</v>
       </c>
       <c r="K17">
-        <v>0.66063248</v>
+        <v>0.78076454</v>
       </c>
       <c r="L17">
-        <v>0.91741726</v>
+        <v>1.1346418</v>
       </c>
       <c r="M17">
-        <v>1.24147048</v>
+        <v>1.00001555</v>
       </c>
       <c r="N17">
-        <v>1.24147048</v>
+        <v>1.00001555</v>
       </c>
       <c r="O17">
-        <v>1.298726186666667</v>
+        <v>1.0058142</v>
       </c>
       <c r="P17">
-        <v>1.047857813333333</v>
+        <v>0.92693188</v>
       </c>
       <c r="Q17">
-        <v>1.047857813333333</v>
+        <v>0.92693188</v>
       </c>
       <c r="R17">
-        <v>0.9510514799999999</v>
+        <v>0.890390045</v>
       </c>
       <c r="S17">
-        <v>0.9510514799999999</v>
+        <v>0.890390045</v>
       </c>
       <c r="T17">
-        <v>0.9855263466666666</v>
+        <v>0.9685950916666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3755620860273973</v>
+        <v>0.21885897</v>
       </c>
       <c r="D18">
-        <v>1.357486290136986</v>
+        <v>1.9813918</v>
       </c>
       <c r="E18">
-        <v>1.062217725205479</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="F18">
-        <v>0.3755620860273973</v>
+        <v>0.21885897</v>
       </c>
       <c r="G18">
-        <v>1.1476417</v>
+        <v>1.1585466</v>
       </c>
       <c r="H18">
-        <v>1.357486290136986</v>
+        <v>1.9813918</v>
       </c>
       <c r="I18">
-        <v>0.6944910523287672</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J18">
-        <v>1.113727019041096</v>
+        <v>0.66920919</v>
       </c>
       <c r="K18">
-        <v>1.357486290136986</v>
+        <v>1.9813918</v>
       </c>
       <c r="L18">
-        <v>1.062217725205479</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M18">
-        <v>0.7188899056164382</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N18">
-        <v>0.7188899056164382</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O18">
-        <v>0.7107569545205479</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P18">
-        <v>0.9317553671232875</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q18">
-        <v>0.9317553671232875</v>
+        <v>1.00974314</v>
       </c>
       <c r="R18">
-        <v>1.038188097876712</v>
+        <v>1.252655305</v>
       </c>
       <c r="S18">
-        <v>1.038188097876712</v>
+        <v>1.252655305</v>
       </c>
       <c r="T18">
-        <v>0.9585209787899545</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8809067012105262</v>
+        <v>1.5655237</v>
       </c>
       <c r="D19">
-        <v>1.010713346842105</v>
+        <v>0.66063248</v>
       </c>
       <c r="E19">
-        <v>1.019101338421053</v>
+        <v>0.91741726</v>
       </c>
       <c r="F19">
-        <v>0.8809067012105262</v>
+        <v>1.5655237</v>
       </c>
       <c r="G19">
-        <v>1.015639561578948</v>
+        <v>0.83969363</v>
       </c>
       <c r="H19">
-        <v>1.010713346842105</v>
+        <v>0.66063248</v>
       </c>
       <c r="I19">
-        <v>0.9825337589473684</v>
+        <v>1.4132376</v>
       </c>
       <c r="J19">
-        <v>0.9962871910526316</v>
+        <v>0.51665341</v>
       </c>
       <c r="K19">
-        <v>1.010713346842105</v>
+        <v>0.66063248</v>
       </c>
       <c r="L19">
-        <v>1.019101338421053</v>
+        <v>0.91741726</v>
       </c>
       <c r="M19">
-        <v>0.9500040198157893</v>
+        <v>1.24147048</v>
       </c>
       <c r="N19">
-        <v>0.9500040198157893</v>
+        <v>1.24147048</v>
       </c>
       <c r="O19">
-        <v>0.9608472661929822</v>
+        <v>1.298726186666667</v>
       </c>
       <c r="P19">
-        <v>0.9702404621578946</v>
+        <v>1.047857813333333</v>
       </c>
       <c r="Q19">
-        <v>0.9702404621578946</v>
+        <v>1.047857813333333</v>
       </c>
       <c r="R19">
-        <v>0.9803586833289473</v>
+        <v>0.9510514799999999</v>
       </c>
       <c r="S19">
-        <v>0.9803586833289473</v>
+        <v>0.9510514799999999</v>
       </c>
       <c r="T19">
-        <v>0.9841969830087717</v>
+        <v>0.9855263466666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9585690914736843</v>
+        <v>0.3755620860273973</v>
       </c>
       <c r="D20">
-        <v>0.8604701463157894</v>
+        <v>1.357486290136986</v>
       </c>
       <c r="E20">
-        <v>1.110923122631579</v>
+        <v>1.062217725205479</v>
       </c>
       <c r="F20">
-        <v>0.9585690914736843</v>
+        <v>0.3755620860273973</v>
       </c>
       <c r="G20">
-        <v>1.036366642631579</v>
+        <v>1.1476417</v>
       </c>
       <c r="H20">
-        <v>0.8604701463157894</v>
+        <v>1.357486290136986</v>
       </c>
       <c r="I20">
-        <v>0.87243632</v>
+        <v>0.6944910523287672</v>
       </c>
       <c r="J20">
-        <v>1.426944999473684</v>
+        <v>1.113727019041096</v>
       </c>
       <c r="K20">
-        <v>0.8604701463157894</v>
+        <v>1.357486290136986</v>
       </c>
       <c r="L20">
-        <v>1.110923122631579</v>
+        <v>1.062217725205479</v>
       </c>
       <c r="M20">
-        <v>1.034746107052632</v>
+        <v>0.7188899056164382</v>
       </c>
       <c r="N20">
-        <v>1.034746107052632</v>
+        <v>0.7188899056164382</v>
       </c>
       <c r="O20">
-        <v>0.9806428447017547</v>
+        <v>0.7107569545205479</v>
       </c>
       <c r="P20">
-        <v>0.976654120140351</v>
+        <v>0.9317553671232875</v>
       </c>
       <c r="Q20">
-        <v>0.9766541201403509</v>
+        <v>0.9317553671232875</v>
       </c>
       <c r="R20">
-        <v>0.9476081266842106</v>
+        <v>1.038188097876712</v>
       </c>
       <c r="S20">
-        <v>0.9476081266842106</v>
+        <v>1.038188097876712</v>
       </c>
       <c r="T20">
-        <v>1.044285053754386</v>
+        <v>0.9585209787899545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.38738221163911</v>
+        <v>0.8809067012105262</v>
       </c>
       <c r="D21">
-        <v>0.9451645460200326</v>
+        <v>1.010713346842105</v>
       </c>
       <c r="E21">
-        <v>0.8660412991064369</v>
+        <v>1.019101338421053</v>
       </c>
       <c r="F21">
-        <v>1.38738221163911</v>
+        <v>0.8809067012105262</v>
       </c>
       <c r="G21">
-        <v>0.8888523824839044</v>
+        <v>1.015639561578948</v>
       </c>
       <c r="H21">
-        <v>0.9451645460200326</v>
+        <v>1.010713346842105</v>
       </c>
       <c r="I21">
-        <v>1.267629819945443</v>
+        <v>0.9825337589473684</v>
       </c>
       <c r="J21">
-        <v>0.5726370361259864</v>
+        <v>0.9962871910526316</v>
       </c>
       <c r="K21">
-        <v>0.9451645460200326</v>
+        <v>1.010713346842105</v>
       </c>
       <c r="L21">
-        <v>0.8660412991064369</v>
+        <v>1.019101338421053</v>
       </c>
       <c r="M21">
-        <v>1.126711755372773</v>
+        <v>0.9500040198157893</v>
       </c>
       <c r="N21">
-        <v>1.126711755372773</v>
+        <v>0.9500040198157893</v>
       </c>
       <c r="O21">
-        <v>1.173684443563664</v>
+        <v>0.9608472661929822</v>
       </c>
       <c r="P21">
-        <v>1.06619601892186</v>
+        <v>0.9702404621578946</v>
       </c>
       <c r="Q21">
-        <v>1.06619601892186</v>
+        <v>0.9702404621578946</v>
       </c>
       <c r="R21">
-        <v>1.035938150696403</v>
+        <v>0.9803586833289473</v>
       </c>
       <c r="S21">
-        <v>1.035938150696403</v>
+        <v>0.9803586833289473</v>
       </c>
       <c r="T21">
-        <v>0.9879512158868189</v>
+        <v>0.9841969830087717</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.204344669416117</v>
+        <v>0.9585690914736843</v>
       </c>
       <c r="D22">
-        <v>0.9565139702977612</v>
+        <v>0.8604701463157894</v>
       </c>
       <c r="E22">
-        <v>0.965076745243274</v>
+        <v>1.110923122631579</v>
       </c>
       <c r="F22">
-        <v>1.204344669416117</v>
+        <v>0.9585690914736843</v>
       </c>
       <c r="G22">
-        <v>0.962654655792831</v>
+        <v>1.036366642631579</v>
       </c>
       <c r="H22">
-        <v>0.9565139702977612</v>
+        <v>0.8604701463157894</v>
       </c>
       <c r="I22">
-        <v>1.063251345171247</v>
+        <v>0.87243632</v>
       </c>
       <c r="J22">
-        <v>0.963550663035824</v>
+        <v>1.426944999473684</v>
       </c>
       <c r="K22">
-        <v>0.9565139702977612</v>
+        <v>0.8604701463157894</v>
       </c>
       <c r="L22">
-        <v>0.965076745243274</v>
+        <v>1.110923122631579</v>
       </c>
       <c r="M22">
-        <v>1.084710707329696</v>
+        <v>1.034746107052632</v>
       </c>
       <c r="N22">
-        <v>1.084710707329696</v>
+        <v>1.034746107052632</v>
       </c>
       <c r="O22">
-        <v>1.077557586610213</v>
+        <v>0.9806428447017547</v>
       </c>
       <c r="P22">
-        <v>1.041978461652384</v>
+        <v>0.976654120140351</v>
       </c>
       <c r="Q22">
-        <v>1.041978461652384</v>
+        <v>0.9766541201403509</v>
       </c>
       <c r="R22">
-        <v>1.020612338813728</v>
+        <v>0.9476081266842106</v>
       </c>
       <c r="S22">
-        <v>1.020612338813728</v>
+        <v>0.9476081266842106</v>
       </c>
       <c r="T22">
-        <v>1.019232008159509</v>
+        <v>1.044285053754386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.057020441297235</v>
+        <v>1.38738221163911</v>
       </c>
       <c r="D23">
-        <v>1.163465786148756</v>
+        <v>0.9451645460200326</v>
       </c>
       <c r="E23">
-        <v>0.8901132375047996</v>
+        <v>0.8660412991064369</v>
       </c>
       <c r="F23">
-        <v>1.057020441297235</v>
+        <v>1.38738221163911</v>
       </c>
       <c r="G23">
-        <v>0.9698820977595264</v>
+        <v>0.8888523824839044</v>
       </c>
       <c r="H23">
-        <v>1.163465786148756</v>
+        <v>0.9451645460200326</v>
       </c>
       <c r="I23">
-        <v>1.083172435396266</v>
+        <v>1.267629819945443</v>
       </c>
       <c r="J23">
-        <v>0.6813456698330564</v>
+        <v>0.5726370361259864</v>
       </c>
       <c r="K23">
-        <v>1.163465786148756</v>
+        <v>0.9451645460200326</v>
       </c>
       <c r="L23">
-        <v>0.8901132375047996</v>
+        <v>0.8660412991064369</v>
       </c>
       <c r="M23">
-        <v>0.9735668394010175</v>
+        <v>1.126711755372773</v>
       </c>
       <c r="N23">
-        <v>0.9735668394010175</v>
+        <v>1.126711755372773</v>
       </c>
       <c r="O23">
-        <v>1.0101020380661</v>
+        <v>1.173684443563664</v>
       </c>
       <c r="P23">
-        <v>1.036866488316931</v>
+        <v>1.06619601892186</v>
       </c>
       <c r="Q23">
-        <v>1.03686648831693</v>
+        <v>1.06619601892186</v>
       </c>
       <c r="R23">
-        <v>1.068516312774887</v>
+        <v>1.035938150696403</v>
       </c>
       <c r="S23">
-        <v>1.068516312774887</v>
+        <v>1.035938150696403</v>
       </c>
       <c r="T23">
-        <v>0.9741666113232732</v>
+        <v>0.9879512158868189</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.079184351565757</v>
+        <v>1.204344669416117</v>
       </c>
       <c r="D24">
-        <v>0.8959120011689051</v>
+        <v>0.9565139702977612</v>
       </c>
       <c r="E24">
-        <v>1.025296711242839</v>
+        <v>0.965076745243274</v>
       </c>
       <c r="F24">
-        <v>1.079184351565757</v>
+        <v>1.204344669416117</v>
       </c>
       <c r="G24">
-        <v>0.9875322166970538</v>
+        <v>0.962654655792831</v>
       </c>
       <c r="H24">
-        <v>0.8959120011689051</v>
+        <v>0.9565139702977612</v>
       </c>
       <c r="I24">
-        <v>1.025626328957357</v>
+        <v>1.063251345171247</v>
       </c>
       <c r="J24">
-        <v>1.05327314256508</v>
+        <v>0.963550663035824</v>
       </c>
       <c r="K24">
-        <v>0.8959120011689051</v>
+        <v>0.9565139702977612</v>
       </c>
       <c r="L24">
-        <v>1.025296711242839</v>
+        <v>0.965076745243274</v>
       </c>
       <c r="M24">
-        <v>1.052240531404298</v>
+        <v>1.084710707329696</v>
       </c>
       <c r="N24">
-        <v>1.052240531404298</v>
+        <v>1.084710707329696</v>
       </c>
       <c r="O24">
-        <v>1.043369130588651</v>
+        <v>1.077557586610213</v>
       </c>
       <c r="P24">
-        <v>1.000131021325834</v>
+        <v>1.041978461652384</v>
       </c>
       <c r="Q24">
-        <v>1.000131021325834</v>
+        <v>1.041978461652384</v>
       </c>
       <c r="R24">
-        <v>0.9740762662866016</v>
+        <v>1.020612338813728</v>
       </c>
       <c r="S24">
-        <v>0.9740762662866016</v>
+        <v>1.020612338813728</v>
       </c>
       <c r="T24">
-        <v>1.011137458699499</v>
+        <v>1.019232008159509</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.835461578806281</v>
+        <v>1.057020441297235</v>
       </c>
       <c r="D25">
-        <v>1.169808234935869</v>
+        <v>1.163465786148756</v>
       </c>
       <c r="E25">
-        <v>0.9690034834268131</v>
+        <v>0.8901132375047996</v>
       </c>
       <c r="F25">
-        <v>0.835461578806281</v>
+        <v>1.057020441297235</v>
       </c>
       <c r="G25">
-        <v>1.027957184354692</v>
+        <v>0.9698820977595264</v>
       </c>
       <c r="H25">
-        <v>1.169808234935869</v>
+        <v>1.163465786148756</v>
       </c>
       <c r="I25">
-        <v>0.95887469310749</v>
+        <v>1.083172435396266</v>
       </c>
       <c r="J25">
-        <v>0.8694673650092828</v>
+        <v>0.6813456698330564</v>
       </c>
       <c r="K25">
-        <v>1.169808234935869</v>
+        <v>1.163465786148756</v>
       </c>
       <c r="L25">
-        <v>0.9690034834268131</v>
+        <v>0.8901132375047996</v>
       </c>
       <c r="M25">
-        <v>0.9022325311165471</v>
+        <v>0.9735668394010175</v>
       </c>
       <c r="N25">
-        <v>0.9022325311165471</v>
+        <v>0.9735668394010175</v>
       </c>
       <c r="O25">
-        <v>0.9211132517801947</v>
+        <v>1.0101020380661</v>
       </c>
       <c r="P25">
-        <v>0.9914244323896545</v>
+        <v>1.036866488316931</v>
       </c>
       <c r="Q25">
-        <v>0.9914244323896545</v>
+        <v>1.03686648831693</v>
       </c>
       <c r="R25">
-        <v>1.036020383026208</v>
+        <v>1.068516312774887</v>
       </c>
       <c r="S25">
-        <v>1.036020383026208</v>
+        <v>1.068516312774887</v>
       </c>
       <c r="T25">
-        <v>0.9717620899400714</v>
+        <v>0.9741666113232732</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.025289859464515</v>
+        <v>1.079184351565757</v>
       </c>
       <c r="D26">
-        <v>0.941893276682628</v>
+        <v>0.8959120011689051</v>
       </c>
       <c r="E26">
-        <v>1.021673136203001</v>
+        <v>1.025296711242839</v>
       </c>
       <c r="F26">
-        <v>1.025289859464515</v>
+        <v>1.079184351565757</v>
       </c>
       <c r="G26">
-        <v>0.9982984920187713</v>
+        <v>0.9875322166970538</v>
       </c>
       <c r="H26">
-        <v>0.941893276682628</v>
+        <v>0.8959120011689051</v>
       </c>
       <c r="I26">
-        <v>0.9926489798119881</v>
+        <v>1.025626328957357</v>
       </c>
       <c r="J26">
-        <v>1.091062855103464</v>
+        <v>1.05327314256508</v>
       </c>
       <c r="K26">
-        <v>0.941893276682628</v>
+        <v>0.8959120011689051</v>
       </c>
       <c r="L26">
-        <v>1.021673136203001</v>
+        <v>1.025296711242839</v>
       </c>
       <c r="M26">
-        <v>1.023481497833758</v>
+        <v>1.052240531404298</v>
       </c>
       <c r="N26">
-        <v>1.023481497833758</v>
+        <v>1.052240531404298</v>
       </c>
       <c r="O26">
-        <v>1.013203991826501</v>
+        <v>1.043369130588651</v>
       </c>
       <c r="P26">
-        <v>0.9962854241167145</v>
+        <v>1.000131021325834</v>
       </c>
       <c r="Q26">
-        <v>0.9962854241167145</v>
+        <v>1.000131021325834</v>
       </c>
       <c r="R26">
-        <v>0.9826873872581929</v>
+        <v>0.9740762662866016</v>
       </c>
       <c r="S26">
-        <v>0.9826873872581929</v>
+        <v>0.9740762662866016</v>
       </c>
       <c r="T26">
-        <v>1.011811099880728</v>
+        <v>1.011137458699499</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8787562613612248</v>
+        <v>0.835461578806281</v>
       </c>
       <c r="D27">
-        <v>1.026242272850547</v>
+        <v>1.169808234935869</v>
       </c>
       <c r="E27">
-        <v>1.018616446511143</v>
+        <v>0.9690034834268131</v>
       </c>
       <c r="F27">
-        <v>0.8787562613612248</v>
+        <v>0.835461578806281</v>
       </c>
       <c r="G27">
-        <v>1.02042167604189</v>
+        <v>1.027957184354692</v>
       </c>
       <c r="H27">
-        <v>1.026242272850547</v>
+        <v>1.169808234935869</v>
       </c>
       <c r="I27">
-        <v>0.9596480076953364</v>
+        <v>0.95887469310749</v>
       </c>
       <c r="J27">
-        <v>1.045595655612767</v>
+        <v>0.8694673650092828</v>
       </c>
       <c r="K27">
-        <v>1.026242272850547</v>
+        <v>1.169808234935869</v>
       </c>
       <c r="L27">
-        <v>1.018616446511143</v>
+        <v>0.9690034834268131</v>
       </c>
       <c r="M27">
-        <v>0.9486863539361838</v>
+        <v>0.9022325311165471</v>
       </c>
       <c r="N27">
-        <v>0.9486863539361838</v>
+        <v>0.9022325311165471</v>
       </c>
       <c r="O27">
-        <v>0.952340238522568</v>
+        <v>0.9211132517801947</v>
       </c>
       <c r="P27">
-        <v>0.9745383269076383</v>
+        <v>0.9914244323896545</v>
       </c>
       <c r="Q27">
-        <v>0.9745383269076383</v>
+        <v>0.9914244323896545</v>
       </c>
       <c r="R27">
-        <v>0.9874643133933656</v>
+        <v>1.036020383026208</v>
       </c>
       <c r="S27">
-        <v>0.9874643133933656</v>
+        <v>1.036020383026208</v>
       </c>
       <c r="T27">
-        <v>0.9915467200121514</v>
+        <v>0.9717620899400714</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.007396197399548</v>
+        <v>1.025289859464515</v>
       </c>
       <c r="D28">
-        <v>1.088294821878498</v>
+        <v>0.941893276682628</v>
       </c>
       <c r="E28">
-        <v>0.9596456974612709</v>
+        <v>1.021673136203001</v>
       </c>
       <c r="F28">
-        <v>1.007396197399548</v>
+        <v>1.025289859464515</v>
       </c>
       <c r="G28">
-        <v>0.9960699642598007</v>
+        <v>0.9982984920187713</v>
       </c>
       <c r="H28">
-        <v>1.088294821878498</v>
+        <v>0.941893276682628</v>
       </c>
       <c r="I28">
-        <v>1.005998216305687</v>
+        <v>0.9926489798119881</v>
       </c>
       <c r="J28">
-        <v>0.9088061692988669</v>
+        <v>1.091062855103464</v>
       </c>
       <c r="K28">
-        <v>1.088294821878498</v>
+        <v>0.941893276682628</v>
       </c>
       <c r="L28">
-        <v>0.9596456974612709</v>
+        <v>1.021673136203001</v>
       </c>
       <c r="M28">
-        <v>0.9835209474304094</v>
+        <v>1.023481497833758</v>
       </c>
       <c r="N28">
-        <v>0.9835209474304094</v>
+        <v>1.023481497833758</v>
       </c>
       <c r="O28">
-        <v>0.9910133703888352</v>
+        <v>1.013203991826501</v>
       </c>
       <c r="P28">
-        <v>1.018445572246439</v>
+        <v>0.9962854241167145</v>
       </c>
       <c r="Q28">
-        <v>1.018445572246439</v>
+        <v>0.9962854241167145</v>
       </c>
       <c r="R28">
-        <v>1.035907884654454</v>
+        <v>0.9826873872581929</v>
       </c>
       <c r="S28">
-        <v>1.035907884654454</v>
+        <v>0.9826873872581929</v>
       </c>
       <c r="T28">
-        <v>0.9943685111006119</v>
+        <v>1.011811099880728</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.8787562613612248</v>
+      </c>
+      <c r="D29">
+        <v>1.026242272850547</v>
+      </c>
+      <c r="E29">
+        <v>1.018616446511143</v>
+      </c>
+      <c r="F29">
+        <v>0.8787562613612248</v>
+      </c>
+      <c r="G29">
+        <v>1.02042167604189</v>
+      </c>
+      <c r="H29">
+        <v>1.026242272850547</v>
+      </c>
+      <c r="I29">
+        <v>0.9596480076953364</v>
+      </c>
+      <c r="J29">
+        <v>1.045595655612767</v>
+      </c>
+      <c r="K29">
+        <v>1.026242272850547</v>
+      </c>
+      <c r="L29">
+        <v>1.018616446511143</v>
+      </c>
+      <c r="M29">
+        <v>0.9486863539361838</v>
+      </c>
+      <c r="N29">
+        <v>0.9486863539361838</v>
+      </c>
+      <c r="O29">
+        <v>0.952340238522568</v>
+      </c>
+      <c r="P29">
+        <v>0.9745383269076383</v>
+      </c>
+      <c r="Q29">
+        <v>0.9745383269076383</v>
+      </c>
+      <c r="R29">
+        <v>0.9874643133933656</v>
+      </c>
+      <c r="S29">
+        <v>0.9874643133933656</v>
+      </c>
+      <c r="T29">
+        <v>0.9915467200121514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007396197399548</v>
+      </c>
+      <c r="D30">
+        <v>1.088294821878498</v>
+      </c>
+      <c r="E30">
+        <v>0.9596456974612709</v>
+      </c>
+      <c r="F30">
+        <v>1.007396197399548</v>
+      </c>
+      <c r="G30">
+        <v>0.9960699642598007</v>
+      </c>
+      <c r="H30">
+        <v>1.088294821878498</v>
+      </c>
+      <c r="I30">
+        <v>1.005998216305687</v>
+      </c>
+      <c r="J30">
+        <v>0.9088061692988669</v>
+      </c>
+      <c r="K30">
+        <v>1.088294821878498</v>
+      </c>
+      <c r="L30">
+        <v>0.9596456974612709</v>
+      </c>
+      <c r="M30">
+        <v>0.9835209474304094</v>
+      </c>
+      <c r="N30">
+        <v>0.9835209474304094</v>
+      </c>
+      <c r="O30">
+        <v>0.9910133703888352</v>
+      </c>
+      <c r="P30">
+        <v>1.018445572246439</v>
+      </c>
+      <c r="Q30">
+        <v>1.018445572246439</v>
+      </c>
+      <c r="R30">
+        <v>1.035907884654454</v>
+      </c>
+      <c r="S30">
+        <v>1.035907884654454</v>
+      </c>
+      <c r="T30">
+        <v>0.9943685111006119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.124042838374256</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.006004373705</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9284804424027467</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.124042838374256</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9486198970526248</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.006004373705</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.156938873499019</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.6457530688350023</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.006004373705</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9284804424027467</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.026261640388501</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.026261640388501</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.069820718092007</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.019509218160668</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.019509218160668</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.01613300704675</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.01613300704675</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9683065823114415</v>
       </c>
     </row>
